--- a/AzureBuilder.xlsx
+++ b/AzureBuilder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejolley/Desktop/AzureLab/Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejolley/Desktop/AzureLab/Scripts copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4986529-86CE-1D46-A7C0-8802C1FDEDF8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00A6972E-1D18-3549-9E60-D1DB2FFF29C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1780" windowWidth="32360" windowHeight="19880" xr2:uid="{3993DB71-EDE7-834C-BAC2-EF7DF49B39F9}"/>
+    <workbookView xWindow="1380" yWindow="1160" windowWidth="25980" windowHeight="20140" xr2:uid="{3993DB71-EDE7-834C-BAC2-EF7DF49B39F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Virtual Machines" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="243">
   <si>
     <t>Domain Controller</t>
   </si>
@@ -533,48 +533,12 @@
     <t>Lab ID</t>
   </si>
   <si>
-    <t>ttp1</t>
-  </si>
-  <si>
     <t>scu</t>
   </si>
   <si>
-    <t>eucslan</t>
-  </si>
-  <si>
-    <t>userlan</t>
-  </si>
-  <si>
-    <t>userdmz</t>
-  </si>
-  <si>
-    <t>siamlan</t>
-  </si>
-  <si>
-    <t>siamdmz</t>
-  </si>
-  <si>
     <t>LAN</t>
   </si>
   <si>
-    <t>ttp1-scu-vnet-eucslan</t>
-  </si>
-  <si>
-    <t>ttp1-scu-vnet-userlan</t>
-  </si>
-  <si>
-    <t>ttp1-scu-vnet-userdmz</t>
-  </si>
-  <si>
-    <t>ttp1-scu-vnet-siamlan</t>
-  </si>
-  <si>
-    <t>ttp1-scu-vnet-siamdmz</t>
-  </si>
-  <si>
-    <t>ttp1-scu-vnet</t>
-  </si>
-  <si>
     <t>10.1.1.0/24</t>
   </si>
   <si>
@@ -605,9 +569,6 @@
     <t>10.1.1.7</t>
   </si>
   <si>
-    <t>10.1.1.8</t>
-  </si>
-  <si>
     <t>10.1.1.9</t>
   </si>
   <si>
@@ -749,9 +710,6 @@
     <t>eucsrdsh01</t>
   </si>
   <si>
-    <t>eucsmail01</t>
-  </si>
-  <si>
     <t>10.1.1.12</t>
   </si>
   <si>
@@ -765,6 +723,45 @@
   </si>
   <si>
     <t>Key</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>lan1</t>
+  </si>
+  <si>
+    <t>lan2</t>
+  </si>
+  <si>
+    <t>dmz2</t>
+  </si>
+  <si>
+    <t>lan3</t>
+  </si>
+  <si>
+    <t>dmz3</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Storage Account</t>
+  </si>
+  <si>
+    <t>1. First host IP address cannot be lower than .4</t>
+  </si>
+  <si>
+    <t>2. Ensure all formulas are extended or subtracted to</t>
+  </si>
+  <si>
+    <t>incorperate changes. Including the CSV tabs</t>
+  </si>
+  <si>
+    <t>3. Regarding the above, take special care with subnets and</t>
+  </si>
+  <si>
+    <t>ensure they are all accounted for both above and in CSV tab</t>
   </si>
 </sst>
 </file>
@@ -775,7 +772,7 @@
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00_);[Red]\(&quot;£&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -785,14 +782,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -982,66 +971,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1050,17 +1034,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,158 +1389,158 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="16" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" style="45" customWidth="1"/>
-    <col min="17" max="20" width="9.83203125" style="45" customWidth="1"/>
-    <col min="21" max="21" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="45" customWidth="1"/>
-    <col min="23" max="25" width="10.1640625" style="45" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="15.5" style="45"/>
+    <col min="1" max="1" width="13.83203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="16" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.5" style="43" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="43" customWidth="1"/>
+    <col min="15" max="15" width="18" style="43" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.83203125" style="43" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="43" customWidth="1"/>
+    <col min="23" max="25" width="10.1640625" style="43" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="15.5" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="50" t="str">
+      <c r="D1" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="48" t="str">
         <f>VLOOKUP(D1,Locations!A:B,2,FALSE)</f>
-        <v>scu</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
+        <v>cus</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="O3" s="62" t="s">
+      <c r="N3" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="S3" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="U3" s="47"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -1549,10 +1552,10 @@
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="58" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -1571,29 +1574,29 @@
       </c>
       <c r="J4" s="24" t="str">
         <f>$D$1</f>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K4" s="24" t="str">
         <f>CONCATENATE($B$1,"-",$F$1)</f>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L4" s="24" t="str">
-        <f>CONCATENATE($B$1,$F$1,"vmstore")</f>
-        <v>ttp1scuvmstore</v>
+        <f>$L$28</f>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M4" s="24" t="str">
-        <f>CONCATENATE($B$1,"-",$F$1,"-vnet")</f>
-        <v>ttp1-scu-vnet</v>
+        <f>$J$28</f>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="O4" s="24" t="str">
         <f>CONCATENATE(M4,"-",N4)</f>
-        <v>ttp1-scu-vnet-eucslan</v>
+        <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="6">
         <f>$T4/730</f>
@@ -1620,10 +1623,10 @@
         <v>161</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="58" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -1641,41 +1644,41 @@
         <v>74</v>
       </c>
       <c r="J5" s="24" t="str">
-        <f t="shared" ref="J5:J26" si="0">$D$1</f>
-        <v>SouthCentralUS</v>
+        <f t="shared" ref="J5:J25" si="0">$D$1</f>
+        <v>CentralUS</v>
       </c>
       <c r="K5" s="24" t="str">
-        <f t="shared" ref="K5:K26" si="1">CONCATENATE($B$1,"-",$F$1)</f>
-        <v>ttp1-scu</v>
+        <f t="shared" ref="K5:K25" si="1">CONCATENATE($B$1,"-",$F$1)</f>
+        <v>xxx-cus</v>
       </c>
       <c r="L5" s="24" t="str">
-        <f t="shared" ref="L5:L26" si="2">CONCATENATE($B$1,$F$1,"vmstore")</f>
-        <v>ttp1scuvmstore</v>
+        <f t="shared" ref="L5:L25" si="2">$L$28</f>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M5" s="24" t="str">
-        <f t="shared" ref="M5:M26" si="3">CONCATENATE($B$1,"-",$F$1,"-vnet")</f>
-        <v>ttp1-scu-vnet</v>
+        <f t="shared" ref="M5:M25" si="3">CONCATENATE($B$1,"-",$F$1,"-vnet")</f>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="O5" s="24" t="str">
-        <f t="shared" ref="O5:O26" si="4">CONCATENATE(M5,"-",N5)</f>
-        <v>ttp1-scu-vnet-eucslan</v>
+        <f t="shared" ref="O5:O25" si="4">CONCATENATE(M5,"-",N5)</f>
+        <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" ref="Q5:Q26" si="5">$T5/730</f>
+        <f t="shared" ref="Q5:Q25" si="5">$T5/730</f>
         <v>4.9369863013698626E-2</v>
       </c>
       <c r="R5" s="6">
-        <f t="shared" ref="R5:R26" si="6">$T5/730*8</f>
+        <f t="shared" ref="R5:R25" si="6">$T5/730*8</f>
         <v>0.394958904109589</v>
       </c>
       <c r="S5" s="6">
-        <f t="shared" ref="S5:S26" si="7">$T5/730*65</f>
+        <f t="shared" ref="S5:S25" si="7">$T5/730*65</f>
         <v>3.2090410958904108</v>
       </c>
       <c r="T5" s="8">
@@ -1693,10 +1696,10 @@
       <c r="C6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="58" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -1715,29 +1718,29 @@
       </c>
       <c r="J6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K6" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L6" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M6" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="O6" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-eucslan</v>
+        <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="5"/>
@@ -1758,7 +1761,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>162</v>
@@ -1766,10 +1769,10 @@
       <c r="C7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="58" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -1788,29 +1791,29 @@
       </c>
       <c r="J7" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K7" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L7" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M7" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="O7" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-eucslan</v>
+        <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7">
         <f t="shared" si="5"/>
@@ -1831,7 +1834,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>162</v>
@@ -1839,14 +1842,14 @@
       <c r="C8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>52</v>
+      <c r="D8" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8" s="5">
         <f>VLOOKUP(F8,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -1854,57 +1857,57 @@
       </c>
       <c r="H8" s="5">
         <f>VLOOKUP(F8,MachineTypes!$A$1:$D$7,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J8" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K8" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L8" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M8" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="O8" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-eucslan</v>
+        <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="6">
         <f t="shared" si="5"/>
-        <v>4.9369863013698626E-2</v>
-      </c>
-      <c r="R8" s="7">
+        <v>9.2671232876712334E-2</v>
+      </c>
+      <c r="R8" s="6">
         <f t="shared" si="6"/>
-        <v>0.394958904109589</v>
-      </c>
-      <c r="S8" s="7">
+        <v>0.74136986301369867</v>
+      </c>
+      <c r="S8" s="6">
         <f t="shared" si="7"/>
-        <v>3.2090410958904108</v>
-      </c>
-      <c r="T8" s="9">
+        <v>6.0236301369863021</v>
+      </c>
+      <c r="T8" s="8">
         <f>VLOOKUP(F8,MachineTypes!$A$1:$D$7,4,FALSE)</f>
-        <v>36.04</v>
+        <v>67.650000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>162</v>
@@ -1912,10 +1915,10 @@
       <c r="C9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="65" t="s">
+      <c r="D9" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="58" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -1930,33 +1933,33 @@
         <v>8</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J9" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K9" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L9" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M9" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="O9" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-eucslan</v>
+        <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="5"/>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>162</v>
@@ -1985,10 +1988,10 @@
       <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="65" t="s">
+      <c r="D10" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="58" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -2007,29 +2010,29 @@
       </c>
       <c r="J10" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K10" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L10" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M10" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="O10" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-eucslan</v>
+        <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="5"/>
@@ -2049,663 +2052,663 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="49">
         <f>VLOOKUP(F11,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="49">
         <f>VLOOKUP(F11,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="24" t="str">
+      <c r="J11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K11" s="24" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L11" s="24" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="L11" s="71" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M11" s="24" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M11" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="O11" s="24" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="O11" s="71" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q11" s="6">
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q11" s="7">
         <f t="shared" si="5"/>
         <v>9.2671232876712334E-2</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="7">
         <f t="shared" si="6"/>
         <v>0.74136986301369867</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="7">
         <f t="shared" si="7"/>
         <v>6.0236301369863021</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="9">
         <f>VLOOKUP(F11,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>67.650000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="A12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="49">
         <f>VLOOKUP(F12,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="49">
         <f>VLOOKUP(F12,MachineTypes!$A$1:$D$7,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="I12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="25" t="str">
+      <c r="J12" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K12" s="25" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K12" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L12" s="25" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="L12" s="71" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M12" s="25" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M12" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="O12" s="25" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="O12" s="71" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q12" s="11">
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q12" s="7">
         <f t="shared" si="5"/>
-        <v>9.2671232876712334E-2</v>
-      </c>
-      <c r="R12" s="11">
+        <v>4.9369863013698626E-2</v>
+      </c>
+      <c r="R12" s="7">
         <f t="shared" si="6"/>
-        <v>0.74136986301369867</v>
-      </c>
-      <c r="S12" s="11">
+        <v>0.394958904109589</v>
+      </c>
+      <c r="S12" s="7">
         <f t="shared" si="7"/>
-        <v>6.0236301369863021</v>
-      </c>
-      <c r="T12" s="12">
+        <v>3.2090410958904108</v>
+      </c>
+      <c r="T12" s="9">
         <f>VLOOKUP(F12,MachineTypes!$A$1:$D$7,4,FALSE)</f>
-        <v>67.650000000000006</v>
+        <v>36.04</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="65" t="s">
+      <c r="D13" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="49">
         <f>VLOOKUP(F13,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="49">
         <f>VLOOKUP(F13,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="24" t="str">
+      <c r="J13" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K13" s="24" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K13" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L13" s="24" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="L13" s="71" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M13" s="24" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M13" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O13" s="24" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="O13" s="71" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-userlan</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q13" s="6">
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7">
         <f t="shared" si="5"/>
         <v>4.9369863013698626E-2</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="7">
         <f t="shared" si="6"/>
         <v>0.394958904109589</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="7">
         <f t="shared" si="7"/>
         <v>3.2090410958904108</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="9">
         <f>VLOOKUP(F13,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>36.04</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="65" t="s">
+      <c r="D14" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="49">
         <f>VLOOKUP(F14,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="49">
         <f>VLOOKUP(F14,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="24" t="str">
+      <c r="J14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K14" s="24" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K14" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L14" s="24" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="L14" s="71" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M14" s="24" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M14" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O14" s="24" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="O14" s="71" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-userlan</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="6">
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q14" s="7">
         <f t="shared" si="5"/>
         <v>4.9369863013698626E-2</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="7">
         <f t="shared" si="6"/>
         <v>0.394958904109589</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="7">
         <f t="shared" si="7"/>
         <v>3.2090410958904108</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="9">
         <f>VLOOKUP(F14,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>36.04</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="65" t="s">
+      <c r="D15" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="49">
         <f>VLOOKUP(F15,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="49">
         <f>VLOOKUP(F15,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="24" t="str">
+      <c r="J15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K15" s="24" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K15" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L15" s="24" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="L15" s="71" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M15" s="24" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M15" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O15" s="24" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="O15" s="71" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-userlan</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q15" s="6">
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="7">
         <f t="shared" si="5"/>
         <v>4.9369863013698626E-2</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="7">
         <f t="shared" si="6"/>
         <v>0.394958904109589</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="7">
         <f t="shared" si="7"/>
         <v>3.2090410958904108</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="9">
         <f>VLOOKUP(F15,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>36.04</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="65" t="s">
+      <c r="D16" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="49">
         <f>VLOOKUP(F16,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="49">
         <f>VLOOKUP(F16,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="24" t="str">
+      <c r="I16" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K16" s="24" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K16" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L16" s="24" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="L16" s="71" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M16" s="24" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M16" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O16" s="24" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="O16" s="71" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-userlan</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q16" s="6">
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7">
         <f t="shared" si="5"/>
         <v>4.9369863013698626E-2</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="7">
         <f t="shared" si="6"/>
         <v>0.394958904109589</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="7">
         <f t="shared" si="7"/>
         <v>3.2090410958904108</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="9">
         <f>VLOOKUP(F16,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>36.04</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="49">
         <f>VLOOKUP(F17,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="49">
         <f>VLOOKUP(F17,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="24" t="str">
+      <c r="I17" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K17" s="24" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K17" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L17" s="24" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="L17" s="71" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M17" s="24" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M17" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O17" s="24" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" s="71" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-userlan</v>
+        <v>xxx-cus-vnet-dmz2</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="6">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="7">
         <f t="shared" si="5"/>
         <v>4.9369863013698626E-2</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="7">
         <f t="shared" si="6"/>
         <v>0.394958904109589</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="7">
         <f t="shared" si="7"/>
         <v>3.2090410958904108</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="9">
         <f>VLOOKUP(F17,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>36.04</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="A18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="49">
         <f>VLOOKUP(F18,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="49">
         <f>VLOOKUP(F18,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="25" t="str">
+      <c r="J18" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K18" s="25" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K18" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L18" s="25" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="L18" s="71" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M18" s="25" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M18" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="O18" s="25" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="O18" s="71" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-userdmz</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q18" s="11">
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q18" s="7">
         <f t="shared" si="5"/>
         <v>4.9369863013698626E-2</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="7">
         <f t="shared" si="6"/>
         <v>0.394958904109589</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="7">
         <f t="shared" si="7"/>
         <v>3.2090410958904108</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="9">
         <f>VLOOKUP(F18,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>36.04</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="65" t="s">
+      <c r="D19" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="49">
         <f>VLOOKUP(F19,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="49">
         <f>VLOOKUP(F19,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="24" t="str">
+      <c r="J19" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K19" s="24" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K19" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L19" s="24" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="L19" s="71" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M19" s="24" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M19" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="O19" s="24" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="O19" s="71" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-siamlan</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q19" s="6">
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q19" s="7">
         <f t="shared" si="5"/>
         <v>4.9369863013698626E-2</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="7">
         <f t="shared" si="6"/>
         <v>0.394958904109589</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="7">
         <f t="shared" si="7"/>
         <v>3.2090410958904108</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="9">
         <f>VLOOKUP(F19,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>36.04</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>162</v>
@@ -2713,14 +2716,14 @@
       <c r="C20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="65" t="s">
+      <c r="D20" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="58" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G20" s="5">
         <f>VLOOKUP(F20,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2728,57 +2731,57 @@
       </c>
       <c r="H20" s="5">
         <f>VLOOKUP(F20,MachineTypes!$A$1:$D$7,3,FALSE)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J20" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K20" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L20" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M20" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="O20" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-siamlan</v>
+        <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="5"/>
-        <v>4.9369863013698626E-2</v>
+        <v>9.2671232876712334E-2</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="6"/>
-        <v>0.394958904109589</v>
+        <v>0.74136986301369867</v>
       </c>
       <c r="S20" s="6">
         <f t="shared" si="7"/>
-        <v>3.2090410958904108</v>
+        <v>6.0236301369863021</v>
       </c>
       <c r="T20" s="8">
         <f>VLOOKUP(F20,MachineTypes!$A$1:$D$7,4,FALSE)</f>
-        <v>36.04</v>
+        <v>67.650000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>162</v>
@@ -2786,10 +2789,10 @@
       <c r="C21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="65" t="s">
+      <c r="D21" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="58" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -2804,54 +2807,54 @@
         <v>8</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J21" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K21" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L21" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M21" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="O21" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-siamlan</v>
+        <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q21" s="6">
+        <v>190</v>
+      </c>
+      <c r="Q21" s="7">
         <f t="shared" si="5"/>
         <v>9.2671232876712334E-2</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="7">
         <f t="shared" si="6"/>
         <v>0.74136986301369867</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="7">
         <f t="shared" si="7"/>
         <v>6.0236301369863021</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="9">
         <f>VLOOKUP(F21,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>67.650000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>162</v>
@@ -2859,10 +2862,10 @@
       <c r="C22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="65" t="s">
+      <c r="D22" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="58" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="22" t="s">
@@ -2877,54 +2880,54 @@
         <v>8</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="J22" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K22" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L22" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M22" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="O22" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-siamlan</v>
+        <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q22" s="7">
+        <v>191</v>
+      </c>
+      <c r="Q22" s="6">
         <f t="shared" si="5"/>
         <v>9.2671232876712334E-2</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="6">
         <f t="shared" si="6"/>
         <v>0.74136986301369867</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="6">
         <f t="shared" si="7"/>
         <v>6.0236301369863021</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <f>VLOOKUP(F22,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>67.650000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>162</v>
@@ -2932,14 +2935,14 @@
       <c r="C23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="65" t="s">
+      <c r="D23" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="58" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="5">
         <f>VLOOKUP(F23,MachineTypes!$A$1:$D$7,2,FALSE)</f>
@@ -2947,68 +2950,68 @@
       </c>
       <c r="H23" s="5">
         <f>VLOOKUP(F23,MachineTypes!$A$1:$D$7,3,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>74</v>
       </c>
       <c r="J23" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K23" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L23" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M23" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="O23" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-siamlan</v>
+        <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="5"/>
-        <v>9.2671232876712334E-2</v>
+        <v>4.9369863013698626E-2</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="6"/>
-        <v>0.74136986301369867</v>
+        <v>0.394958904109589</v>
       </c>
       <c r="S23" s="6">
         <f t="shared" si="7"/>
-        <v>6.0236301369863021</v>
+        <v>3.2090410958904108</v>
       </c>
       <c r="T23" s="8">
         <f>VLOOKUP(F23,MachineTypes!$A$1:$D$7,4,FALSE)</f>
-        <v>67.650000000000006</v>
+        <v>36.04</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>41</v>
+      <c r="A24" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="65" t="s">
+      <c r="D24" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="60" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -3027,29 +3030,29 @@
       </c>
       <c r="J24" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
+        <v>CentralUS</v>
       </c>
       <c r="K24" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L24" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
+        <v>xxxcusvmstore</v>
       </c>
       <c r="M24" s="24" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
+        <v>xxx-cus-vnet</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="O24" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-siamlan</v>
+        <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="5"/>
@@ -3069,340 +3072,378 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="67" t="s">
+      <c r="A25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="10">
         <f>VLOOKUP(F25,MachineTypes!$A$1:$D$7,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="10">
         <f>VLOOKUP(F25,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="24" t="str">
+      <c r="J25" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K25" s="24" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="K25" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
+        <v>xxx-cus</v>
       </c>
       <c r="L25" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M25" s="24" t="str">
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M25" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="O25" s="24" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-siamlan</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q25" s="6">
+        <v>xxx-cus-vnet-dmz3</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q25" s="11">
         <f t="shared" si="5"/>
         <v>4.9369863013698626E-2</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="11">
         <f t="shared" si="6"/>
         <v>0.394958904109589</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="11">
         <f t="shared" si="7"/>
         <v>3.2090410958904108</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="12">
         <f>VLOOKUP(F25,MachineTypes!$A$1:$D$7,4,FALSE)</f>
         <v>36.04</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="10">
-        <f>VLOOKUP(F26,MachineTypes!$A$1:$D$7,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="H26" s="10">
-        <f>VLOOKUP(F26,MachineTypes!$A$1:$D$7,3,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="K26" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="L26" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="M26" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="N26" s="20" t="s">
+    <row r="26" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="R26" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="T26" s="55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="J27" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51">
+        <f>SUM(Q4:Q25)</f>
+        <v>1.3892465753424659</v>
+      </c>
+      <c r="R27" s="51">
+        <f>SUM(R4:R25)</f>
+        <v>11.113972602739727</v>
+      </c>
+      <c r="S27" s="51">
+        <f>SUM(S4:S25)</f>
+        <v>90.301027397260285</v>
+      </c>
+      <c r="T27" s="51">
+        <f>SUM(T4:T25)</f>
+        <v>1014.1499999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="J28" s="24" t="str">
+        <f>CONCATENATE($B$1,"-",$F$1,"-vnet")</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="K28" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="24" t="str">
+        <f>CONCATENATE($B$1,$F$1,"vmstore")</f>
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51">
+        <f>SUM(Q4:Q7)</f>
+        <v>0.1974794520547945</v>
+      </c>
+      <c r="R28" s="51">
+        <f>SUM(R4:R7)</f>
+        <v>1.579835616438356</v>
+      </c>
+      <c r="S28" s="51">
+        <f>SUM(S4:S7)</f>
+        <v>12.836164383561643</v>
+      </c>
+      <c r="T28" s="51">
+        <f>SUM(T4:T7)</f>
+        <v>144.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="J29" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="51">
+        <f>SUM(Q4:Q11)</f>
+        <v>0.56816438356164378</v>
+      </c>
+      <c r="R29" s="51">
+        <f>SUM(R4:R11)</f>
+        <v>4.5453150684931503</v>
+      </c>
+      <c r="S29" s="51">
+        <f>SUM(S4:S11)</f>
+        <v>36.930684931506846</v>
+      </c>
+      <c r="T29" s="51">
+        <f>SUM(T4:T11)</f>
+        <v>414.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="J30" s="35" t="str">
+        <f>LOOKUP(2,1/(COUNTIF($J$29:J29,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
+        <v>xxx-cus-vnet-dmz3</v>
+      </c>
+      <c r="K30" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="53">
+        <f>SUM(Q4:Q17)</f>
+        <v>0.86438356164383545</v>
+      </c>
+      <c r="R30" s="53">
+        <f>SUM(R4:R17)</f>
+        <v>6.9150684931506836</v>
+      </c>
+      <c r="S30" s="53">
+        <f>SUM(S4:S17)</f>
+        <v>56.184931506849324</v>
+      </c>
+      <c r="T30" s="53">
+        <f>SUM(T4:T17)</f>
+        <v>630.99999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="J31" s="35" t="str">
+        <f>LOOKUP(2,1/(COUNTIF($J$29:J30,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="K31" s="65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="J32" s="35" t="str">
+        <f>LOOKUP(2,1/(COUNTIF($J$29:J31,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
+        <v>xxx-cus-vnet-dmz2</v>
+      </c>
+      <c r="K32" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J33" s="35" t="str">
+        <f>LOOKUP(2,1/(COUNTIF($J$29:J32,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="K33" s="65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J34" s="35" t="str">
+        <f>LOOKUP(2,1/(COUNTIF($J$29:J33,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="K34" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="O26" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>ttp1-scu-vnet-siamdmz</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q26" s="11">
-        <f t="shared" si="5"/>
-        <v>4.9369863013698626E-2</v>
-      </c>
-      <c r="R26" s="11">
-        <f t="shared" si="6"/>
-        <v>0.394958904109589</v>
-      </c>
-      <c r="S26" s="11">
-        <f t="shared" si="7"/>
-        <v>3.2090410958904108</v>
-      </c>
-      <c r="T26" s="12">
-        <f>VLOOKUP(F26,MachineTypes!$A$1:$D$7,4,FALSE)</f>
-        <v>36.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="R27" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="S27" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="T27" s="60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
-        <v>243</v>
-      </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="O28" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56">
-        <f>SUM(Q4:Q26)</f>
-        <v>1.4386164383561644</v>
-      </c>
-      <c r="R28" s="56">
-        <f>SUM(R4:R26)</f>
-        <v>11.508931506849315</v>
-      </c>
-      <c r="S28" s="56">
-        <f>SUM(S4:S26)</f>
-        <v>93.510068493150698</v>
-      </c>
-      <c r="T28" s="56">
-        <f>SUM(T4:T26)</f>
-        <v>1050.1899999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="26" t="s">
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J36" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+    </row>
+    <row r="37" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J37" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+    </row>
+    <row r="38" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J38" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J39" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J40" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="O29" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="56">
-        <f>SUM(Q4:Q8)</f>
-        <v>0.24684931506849311</v>
-      </c>
-      <c r="R29" s="56">
-        <f>SUM(R4:R8)</f>
-        <v>1.9747945205479449</v>
-      </c>
-      <c r="S29" s="56">
-        <f>SUM(S4:S8)</f>
-        <v>16.045205479452054</v>
-      </c>
-      <c r="T29" s="56">
-        <f>SUM(T4:T8)</f>
-        <v>180.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="M30" s="52"/>
-      <c r="O30" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="56">
-        <f>SUM(Q4:Q12)</f>
-        <v>0.61753424657534239</v>
-      </c>
-      <c r="R30" s="56">
-        <f>SUM(R4:R12)</f>
-        <v>4.9402739726027391</v>
-      </c>
-      <c r="S30" s="56">
-        <f>SUM(S4:S12)</f>
-        <v>40.139726027397259</v>
-      </c>
-      <c r="T30" s="56">
-        <f>SUM(T4:T12)</f>
-        <v>450.79999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" s="26" t="s">
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J41" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="M31" s="52"/>
-      <c r="O31" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="58">
-        <f>SUM(Q4:Q18)</f>
-        <v>0.91375342465753406</v>
-      </c>
-      <c r="R31" s="58">
-        <f>SUM(R4:R18)</f>
-        <v>7.3100273972602725</v>
-      </c>
-      <c r="S31" s="58">
-        <f>SUM(S4:S18)</f>
-        <v>59.393972602739737</v>
-      </c>
-      <c r="T31" s="58">
-        <f>SUM(T4:T18)</f>
-        <v>667.03999999999985</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="M32" s="52"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="M33" s="52"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M34" s="51"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A28:C28"/>
+  <mergeCells count="2">
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA499EBE-FA30-8149-862B-9F8D4BC48086}">
+          <x14:formula1>
+            <xm:f>Locations!$A$1:$A$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1 J4:J25</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F06DE04-E7FC-F841-86E9-7CF4A1CB6D59}">
           <x14:formula1>
             <xm:f>ImageName!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I26</xm:sqref>
+          <xm:sqref>I4:I25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D5FFE1A3-491D-3A46-B1B8-0C3D7913BEB4}">
           <x14:formula1>
             <xm:f>MachineTypes!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA499EBE-FA30-8149-862B-9F8D4BC48086}">
-          <x14:formula1>
-            <xm:f>Locations!$A$1:$A$28</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1 J4:J26</xm:sqref>
+          <xm:sqref>F4:F25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B48FB22B-BFB2-A342-AD5B-28D1249C1846}">
           <x14:formula1>
             <xm:f>Type!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B26</xm:sqref>
+          <xm:sqref>B4:B25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B4D1A81-FC0C-7F40-B288-185C404B817C}">
+          <x14:formula1>
+            <xm:f>StorageTypes!$B$1:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>M28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3423,1523 +3464,1523 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="41" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="53.5" style="41" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="41"/>
+    <col min="1" max="1" width="14" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="39" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="53.5" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="str">
+      <c r="A2" s="39" t="str">
         <f>'Virtual Machines'!J4</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B2" s="41" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B2" s="39" t="str">
         <f>'Virtual Machines'!K4</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C2" s="41" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C2" s="39" t="str">
         <f>'Virtual Machines'!A4</f>
         <v>eucsadds01</v>
       </c>
-      <c r="D2" s="41" t="str">
+      <c r="D2" s="39" t="str">
         <f>'Virtual Machines'!B4</f>
         <v>Domain Controller</v>
       </c>
-      <c r="E2" s="41" t="str">
+      <c r="E2" s="39" t="str">
         <f>'Virtual Machines'!C4</f>
         <v>eucs.internal</v>
       </c>
-      <c r="F2" s="41" t="str">
+      <c r="F2" s="39" t="str">
         <f>'Virtual Machines'!F4</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="G2" s="41" t="str">
+      <c r="G2" s="39" t="str">
         <f>'Virtual Machines'!M4</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H2" s="41" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H2" s="39" t="str">
         <f>'Virtual Machines'!O4</f>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="I2" s="41" t="str">
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="I2" s="39" t="str">
         <f>'Virtual Machines'!P4</f>
         <v>10.1.1.4</v>
       </c>
-      <c r="J2" s="41" t="str">
+      <c r="J2" s="39" t="str">
         <f>VLOOKUP('Virtual Machines'!I4,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="K2" s="41" t="str">
+      <c r="K2" s="39" t="str">
         <f>LEFT(J2, SEARCH(":",J2,1)-1)</f>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="L2" s="41" t="str">
+      <c r="L2" s="39" t="str">
         <f>MID(J2, SEARCH(":",J2) + 1, SEARCH(":",J2,SEARCH(":",J2)+1) - SEARCH(":",J2) - 1)</f>
         <v>WindowsServer</v>
       </c>
-      <c r="M2" s="41" t="str">
+      <c r="M2" s="39" t="str">
         <f>RIGHT(J2,LEN(J2) - SEARCH(":", J2, SEARCH(":", J2) + 1))</f>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="N2" s="41" t="str">
+      <c r="N2" s="39" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!L4,".blob.core.windows.net/osdisks/",C2,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/eucsadds01.vhd</v>
-      </c>
-      <c r="O2" s="41" t="str">
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/eucsadds01.vhd</v>
+      </c>
+      <c r="O2" s="39" t="str">
         <f>CONCATENATE(C2,"-",B2,".",A2,".","cloudapp.azure.com")</f>
-        <v>eucsadds01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P2" s="41" t="str">
+        <v>eucsadds01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P2" s="39" t="str">
         <f>LEFT(E2, SEARCH(".",E2,1)-1)</f>
         <v>eucs</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="str">
+      <c r="A3" s="39" t="str">
         <f>'Virtual Machines'!J5</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B3" s="41" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B3" s="39" t="str">
         <f>'Virtual Machines'!K5</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C3" s="41" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C3" s="39" t="str">
         <f>'Virtual Machines'!A5</f>
         <v>eucsadcs01</v>
       </c>
-      <c r="D3" s="41" t="str">
+      <c r="D3" s="39" t="str">
         <f>'Virtual Machines'!B5</f>
         <v>Standalone</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="39">
         <f>'Virtual Machines'!C5</f>
         <v>0</v>
       </c>
-      <c r="F3" s="41" t="str">
+      <c r="F3" s="39" t="str">
         <f>'Virtual Machines'!F5</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="G3" s="41" t="str">
+      <c r="G3" s="39" t="str">
         <f>'Virtual Machines'!M5</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H3" s="41" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H3" s="39" t="str">
         <f>'Virtual Machines'!O5</f>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="I3" s="41" t="str">
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="I3" s="39" t="str">
         <f>'Virtual Machines'!P5</f>
         <v>10.1.1.5</v>
       </c>
-      <c r="J3" s="41" t="str">
+      <c r="J3" s="39" t="str">
         <f>VLOOKUP('Virtual Machines'!I5,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="K3" s="41" t="str">
+      <c r="K3" s="39" t="str">
         <f t="shared" ref="K3:K23" si="0">LEFT(J3, SEARCH(":",J3,1)-1)</f>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="L3" s="41" t="str">
+      <c r="L3" s="39" t="str">
         <f t="shared" ref="L3:L23" si="1">MID(J3, SEARCH(":",J3) + 1, SEARCH(":",J3,SEARCH(":",J3)+1) - SEARCH(":",J3) - 1)</f>
         <v>WindowsServer</v>
       </c>
-      <c r="M3" s="41" t="str">
+      <c r="M3" s="39" t="str">
         <f t="shared" ref="M3:M23" si="2">RIGHT(J3,LEN(J3) - SEARCH(":", J3, SEARCH(":", J3) + 1))</f>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="N3" s="41" t="str">
+      <c r="N3" s="39" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!L5,".blob.core.windows.net/osdisks/",C3,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/eucsadcs01.vhd</v>
-      </c>
-      <c r="O3" s="41" t="str">
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/eucsadcs01.vhd</v>
+      </c>
+      <c r="O3" s="39" t="str">
         <f t="shared" ref="O3:O23" si="3">CONCATENATE(C3,"-",B3,".",A3,".","cloudapp.azure.com")</f>
-        <v>eucsadcs01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P3" s="41" t="e">
+        <v>eucsadcs01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P3" s="39" t="e">
         <f t="shared" ref="P3:P23" si="4">LEFT(E3, SEARCH(".",E3,1)-1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="str">
+      <c r="A4" s="39" t="str">
         <f>'Virtual Machines'!J6</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B4" s="41" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B4" s="39" t="str">
         <f>'Virtual Machines'!K6</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C4" s="41" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C4" s="39" t="str">
         <f>'Virtual Machines'!A6</f>
         <v>eucsadcs02</v>
       </c>
-      <c r="D4" s="41" t="str">
+      <c r="D4" s="39" t="str">
         <f>'Virtual Machines'!B6</f>
         <v>Member Server</v>
       </c>
-      <c r="E4" s="41" t="str">
+      <c r="E4" s="39" t="str">
         <f>'Virtual Machines'!C6</f>
         <v>eucs.internal</v>
       </c>
-      <c r="F4" s="41" t="str">
+      <c r="F4" s="39" t="str">
         <f>'Virtual Machines'!F6</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="G4" s="41" t="str">
+      <c r="G4" s="39" t="str">
         <f>'Virtual Machines'!M6</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H4" s="41" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H4" s="39" t="str">
         <f>'Virtual Machines'!O6</f>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="I4" s="41" t="str">
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="I4" s="39" t="str">
         <f>'Virtual Machines'!P6</f>
         <v>10.1.1.6</v>
       </c>
-      <c r="J4" s="41" t="str">
+      <c r="J4" s="39" t="str">
         <f>VLOOKUP('Virtual Machines'!I6,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="K4" s="41" t="str">
+      <c r="K4" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="L4" s="41" t="str">
+      <c r="L4" s="39" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="M4" s="41" t="str">
+      <c r="M4" s="39" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="N4" s="41" t="str">
+      <c r="N4" s="39" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!L6,".blob.core.windows.net/osdisks/",C4,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/eucsadcs02.vhd</v>
-      </c>
-      <c r="O4" s="41" t="str">
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/eucsadcs02.vhd</v>
+      </c>
+      <c r="O4" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>eucsadcs02-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P4" s="41" t="str">
+        <v>eucsadcs02-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P4" s="39" t="str">
         <f t="shared" si="4"/>
         <v>eucs</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="str">
+      <c r="A5" s="39" t="str">
         <f>'Virtual Machines'!J7</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B5" s="41" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B5" s="39" t="str">
         <f>'Virtual Machines'!K7</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C5" s="41" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C5" s="39" t="str">
         <f>'Virtual Machines'!A7</f>
         <v>eucsrdsh01</v>
       </c>
-      <c r="D5" s="41" t="str">
+      <c r="D5" s="39" t="str">
         <f>'Virtual Machines'!B7</f>
         <v>Member Server</v>
       </c>
-      <c r="E5" s="41" t="str">
+      <c r="E5" s="39" t="str">
         <f>'Virtual Machines'!C7</f>
         <v>eucs.internal</v>
       </c>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="39" t="str">
         <f>'Virtual Machines'!F7</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="G5" s="41" t="str">
+      <c r="G5" s="39" t="str">
         <f>'Virtual Machines'!M7</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H5" s="41" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H5" s="39" t="str">
         <f>'Virtual Machines'!O7</f>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="I5" s="41" t="str">
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="I5" s="39" t="str">
         <f>'Virtual Machines'!P7</f>
         <v>10.1.1.7</v>
       </c>
-      <c r="J5" s="41" t="str">
+      <c r="J5" s="39" t="str">
         <f>VLOOKUP('Virtual Machines'!I7,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="K5" s="41" t="str">
+      <c r="K5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="L5" s="41" t="str">
+      <c r="L5" s="39" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="M5" s="41" t="str">
+      <c r="M5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="N5" s="41" t="str">
+      <c r="N5" s="39" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!L7,".blob.core.windows.net/osdisks/",C5,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/eucsrdsh01.vhd</v>
-      </c>
-      <c r="O5" s="41" t="str">
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/eucsrdsh01.vhd</v>
+      </c>
+      <c r="O5" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>eucsrdsh01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P5" s="41" t="str">
+        <v>eucsrdsh01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P5" s="39" t="str">
         <f t="shared" si="4"/>
         <v>eucs</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="str">
+      <c r="A6" s="39" t="str">
+        <f>'Virtual Machines'!J8</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B6" s="39" t="str">
+        <f>'Virtual Machines'!K8</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C6" s="39" t="str">
+        <f>'Virtual Machines'!A8</f>
+        <v>eucssqls0101</v>
+      </c>
+      <c r="D6" s="39" t="str">
+        <f>'Virtual Machines'!B8</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E6" s="39" t="str">
+        <f>'Virtual Machines'!C8</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F6" s="39" t="str">
+        <f>'Virtual Machines'!F8</f>
+        <v>Standard_B2ms</v>
+      </c>
+      <c r="G6" s="39" t="str">
+        <f>'Virtual Machines'!M8</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H6" s="39" t="str">
+        <f>'Virtual Machines'!O8</f>
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="I6" s="39" t="str">
+        <f>'Virtual Machines'!P8</f>
+        <v>10.1.1.9</v>
+      </c>
+      <c r="J6" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I8,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftSQLServer:SQL2012SP4-WS2012R2:Standard</v>
+      </c>
+      <c r="K6" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftSQLServer</v>
+      </c>
+      <c r="L6" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>SQL2012SP4-WS2012R2</v>
+      </c>
+      <c r="M6" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Standard</v>
+      </c>
+      <c r="N6" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L8,".blob.core.windows.net/osdisks/",C6,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/eucssqls0101.vhd</v>
+      </c>
+      <c r="O6" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>eucssqls0101-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P6" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>eucs</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="str">
         <f>'Virtual Machines'!J9</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B6" s="41" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B7" s="39" t="str">
         <f>'Virtual Machines'!K9</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C6" s="41" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C7" s="39" t="str">
         <f>'Virtual Machines'!A9</f>
-        <v>eucssqls0101</v>
-      </c>
-      <c r="D6" s="41" t="str">
+        <v>eucssccm01</v>
+      </c>
+      <c r="D7" s="39" t="str">
         <f>'Virtual Machines'!B9</f>
         <v>Member Server</v>
       </c>
-      <c r="E6" s="41" t="str">
+      <c r="E7" s="39" t="str">
         <f>'Virtual Machines'!C9</f>
         <v>eucs.internal</v>
       </c>
-      <c r="F6" s="41" t="str">
+      <c r="F7" s="39" t="str">
         <f>'Virtual Machines'!F9</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="G6" s="41" t="str">
+      <c r="G7" s="39" t="str">
         <f>'Virtual Machines'!M9</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H6" s="41" t="str">
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H7" s="39" t="str">
         <f>'Virtual Machines'!O9</f>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="I6" s="41" t="str">
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="I7" s="39" t="str">
         <f>'Virtual Machines'!P9</f>
-        <v>10.1.1.9</v>
-      </c>
-      <c r="J6" s="41" t="str">
+        <v>10.1.1.10</v>
+      </c>
+      <c r="J7" s="39" t="str">
         <f>VLOOKUP('Virtual Machines'!I9,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K7" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N7" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L9,".blob.core.windows.net/osdisks/",C7,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/eucssccm01.vhd</v>
+      </c>
+      <c r="O7" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>eucssccm01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P7" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>eucs</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="str">
+        <f>'Virtual Machines'!J10</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B8" s="39" t="str">
+        <f>'Virtual Machines'!K10</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C8" s="39" t="str">
+        <f>'Virtual Machines'!A10</f>
+        <v>eucsscor01</v>
+      </c>
+      <c r="D8" s="39" t="str">
+        <f>'Virtual Machines'!B10</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E8" s="39" t="str">
+        <f>'Virtual Machines'!C10</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F8" s="39" t="str">
+        <f>'Virtual Machines'!F10</f>
+        <v>Standard_B2ms</v>
+      </c>
+      <c r="G8" s="39" t="str">
+        <f>'Virtual Machines'!M10</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H8" s="39" t="str">
+        <f>'Virtual Machines'!O10</f>
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="I8" s="39" t="str">
+        <f>'Virtual Machines'!P10</f>
+        <v>10.1.1.11</v>
+      </c>
+      <c r="J8" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I10,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K8" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M8" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N8" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L10,".blob.core.windows.net/osdisks/",C8,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/eucsscor01.vhd</v>
+      </c>
+      <c r="O8" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>eucsscor01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P8" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>eucs</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="str">
+        <f>'Virtual Machines'!J11</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B9" s="39" t="str">
+        <f>'Virtual Machines'!K11</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C9" s="39" t="str">
+        <f>'Virtual Machines'!A11</f>
+        <v>eucsscsm01</v>
+      </c>
+      <c r="D9" s="39" t="str">
+        <f>'Virtual Machines'!B11</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E9" s="39" t="str">
+        <f>'Virtual Machines'!C11</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F9" s="39" t="str">
+        <f>'Virtual Machines'!F11</f>
+        <v>Standard_B2ms</v>
+      </c>
+      <c r="G9" s="39" t="str">
+        <f>'Virtual Machines'!M11</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H9" s="39" t="str">
+        <f>'Virtual Machines'!O11</f>
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="I9" s="39" t="str">
+        <f>'Virtual Machines'!P11</f>
+        <v>10.1.1.12</v>
+      </c>
+      <c r="J9" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I11,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K9" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L9" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N9" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L11,".blob.core.windows.net/osdisks/",C9,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/eucsscsm01.vhd</v>
+      </c>
+      <c r="O9" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>eucsscsm01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P9" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>eucs</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="str">
+        <f>'Virtual Machines'!J12</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B10" s="39" t="str">
+        <f>'Virtual Machines'!K12</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C10" s="39" t="str">
+        <f>'Virtual Machines'!A12</f>
+        <v>useradds01</v>
+      </c>
+      <c r="D10" s="39" t="str">
+        <f>'Virtual Machines'!B12</f>
+        <v>Domain Controller</v>
+      </c>
+      <c r="E10" s="39" t="str">
+        <f>'Virtual Machines'!C12</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F10" s="39" t="str">
+        <f>'Virtual Machines'!F12</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G10" s="39" t="str">
+        <f>'Virtual Machines'!M12</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H10" s="39" t="str">
+        <f>'Virtual Machines'!O12</f>
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="I10" s="39" t="str">
+        <f>'Virtual Machines'!P12</f>
+        <v>10.1.2.4</v>
+      </c>
+      <c r="J10" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I12,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K10" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L10" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M10" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N10" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L12,".blob.core.windows.net/osdisks/",C10,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/useradds01.vhd</v>
+      </c>
+      <c r="O10" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>useradds01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P10" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>user</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="str">
+        <f>'Virtual Machines'!J13</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B11" s="39" t="str">
+        <f>'Virtual Machines'!K13</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C11" s="39" t="str">
+        <f>'Virtual Machines'!A13</f>
+        <v>usermail01</v>
+      </c>
+      <c r="D11" s="39" t="str">
+        <f>'Virtual Machines'!B13</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E11" s="39" t="str">
+        <f>'Virtual Machines'!C13</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F11" s="39" t="str">
+        <f>'Virtual Machines'!F13</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G11" s="39" t="str">
+        <f>'Virtual Machines'!M13</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H11" s="39" t="str">
+        <f>'Virtual Machines'!O13</f>
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="I11" s="39" t="str">
+        <f>'Virtual Machines'!P13</f>
+        <v>10.1.2.5</v>
+      </c>
+      <c r="J11" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I13,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K11" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L11" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M11" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N11" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L13,".blob.core.windows.net/osdisks/",C11,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/usermail01.vhd</v>
+      </c>
+      <c r="O11" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>usermail01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P11" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>user</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="str">
+        <f>'Virtual Machines'!J14</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B12" s="39" t="str">
+        <f>'Virtual Machines'!K14</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C12" s="39" t="str">
+        <f>'Virtual Machines'!A14</f>
+        <v>useraadc01</v>
+      </c>
+      <c r="D12" s="39" t="str">
+        <f>'Virtual Machines'!B14</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E12" s="39" t="str">
+        <f>'Virtual Machines'!C14</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F12" s="39" t="str">
+        <f>'Virtual Machines'!F14</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G12" s="39" t="str">
+        <f>'Virtual Machines'!M14</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H12" s="39" t="str">
+        <f>'Virtual Machines'!O14</f>
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="I12" s="39" t="str">
+        <f>'Virtual Machines'!P14</f>
+        <v>10.1.2.6</v>
+      </c>
+      <c r="J12" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I14,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L12" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M12" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N12" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L14,".blob.core.windows.net/osdisks/",C12,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/useraadc01.vhd</v>
+      </c>
+      <c r="O12" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>useraadc01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P12" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>user</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="str">
+        <f>'Virtual Machines'!J15</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B13" s="39" t="str">
+        <f>'Virtual Machines'!K15</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C13" s="39" t="str">
+        <f>'Virtual Machines'!A15</f>
+        <v>useradfs01</v>
+      </c>
+      <c r="D13" s="39" t="str">
+        <f>'Virtual Machines'!B15</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E13" s="39" t="str">
+        <f>'Virtual Machines'!C15</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F13" s="39" t="str">
+        <f>'Virtual Machines'!F15</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G13" s="39" t="str">
+        <f>'Virtual Machines'!M15</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H13" s="39" t="str">
+        <f>'Virtual Machines'!O15</f>
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="I13" s="39" t="str">
+        <f>'Virtual Machines'!P15</f>
+        <v>10.1.2.7</v>
+      </c>
+      <c r="J13" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I15,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K13" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L13" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M13" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N13" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L15,".blob.core.windows.net/osdisks/",C13,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/useradfs01.vhd</v>
+      </c>
+      <c r="O13" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>useradfs01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P13" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>user</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="str">
+        <f>'Virtual Machines'!J16</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B14" s="39" t="str">
+        <f>'Virtual Machines'!K16</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C14" s="39" t="str">
+        <f>'Virtual Machines'!A16</f>
+        <v>userclient</v>
+      </c>
+      <c r="D14" s="39" t="str">
+        <f>'Virtual Machines'!B16</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E14" s="39" t="str">
+        <f>'Virtual Machines'!C16</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F14" s="39" t="str">
+        <f>'Virtual Machines'!F16</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G14" s="39" t="str">
+        <f>'Virtual Machines'!M16</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H14" s="39" t="str">
+        <f>'Virtual Machines'!O16</f>
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="I14" s="39" t="str">
+        <f>'Virtual Machines'!P16</f>
+        <v>10.1.2.8</v>
+      </c>
+      <c r="J14" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I16,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsDesktop:Windows-10:RS3-Pro</v>
+      </c>
+      <c r="K14" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsDesktop</v>
+      </c>
+      <c r="L14" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>Windows-10</v>
+      </c>
+      <c r="M14" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>RS3-Pro</v>
+      </c>
+      <c r="N14" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L16,".blob.core.windows.net/osdisks/",C14,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/userclient.vhd</v>
+      </c>
+      <c r="O14" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>userclient-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P14" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>user</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="str">
+        <f>'Virtual Machines'!J17</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B15" s="39" t="str">
+        <f>'Virtual Machines'!K17</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C15" s="39" t="str">
+        <f>'Virtual Machines'!A17</f>
+        <v>userawap01</v>
+      </c>
+      <c r="D15" s="39" t="str">
+        <f>'Virtual Machines'!B17</f>
+        <v>Standalone</v>
+      </c>
+      <c r="E15" s="39">
+        <f>'Virtual Machines'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="39" t="str">
+        <f>'Virtual Machines'!F17</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G15" s="39" t="str">
+        <f>'Virtual Machines'!M17</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H15" s="39" t="str">
+        <f>'Virtual Machines'!O17</f>
+        <v>xxx-cus-vnet-dmz2</v>
+      </c>
+      <c r="I15" s="39" t="str">
+        <f>'Virtual Machines'!P17</f>
+        <v>10.1.3.4</v>
+      </c>
+      <c r="J15" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I17,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K15" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M15" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N15" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L17,".blob.core.windows.net/osdisks/",C15,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/userawap01.vhd</v>
+      </c>
+      <c r="O15" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>userawap01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P15" s="39" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="str">
+        <f>'Virtual Machines'!J18</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B16" s="39" t="str">
+        <f>'Virtual Machines'!K18</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C16" s="39" t="str">
+        <f>'Virtual Machines'!A18</f>
+        <v>siamadds01</v>
+      </c>
+      <c r="D16" s="39" t="str">
+        <f>'Virtual Machines'!B18</f>
+        <v>Domain Controller</v>
+      </c>
+      <c r="E16" s="39" t="str">
+        <f>'Virtual Machines'!C18</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F16" s="39" t="str">
+        <f>'Virtual Machines'!F18</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G16" s="39" t="str">
+        <f>'Virtual Machines'!M18</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H16" s="39" t="str">
+        <f>'Virtual Machines'!O18</f>
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="I16" s="39" t="str">
+        <f>'Virtual Machines'!P18</f>
+        <v>10.1.4.4</v>
+      </c>
+      <c r="J16" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I18,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K16" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L16" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M16" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N16" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L18,".blob.core.windows.net/osdisks/",C16,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/siamadds01.vhd</v>
+      </c>
+      <c r="O16" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>siamadds01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P16" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>siam</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="str">
+        <f>'Virtual Machines'!J19</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B17" s="39" t="str">
+        <f>'Virtual Machines'!K19</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C17" s="39" t="str">
+        <f>'Virtual Machines'!A19</f>
+        <v>siamadfs01</v>
+      </c>
+      <c r="D17" s="39" t="str">
+        <f>'Virtual Machines'!B19</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E17" s="39" t="str">
+        <f>'Virtual Machines'!C19</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F17" s="39" t="str">
+        <f>'Virtual Machines'!F19</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G17" s="39" t="str">
+        <f>'Virtual Machines'!M19</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H17" s="39" t="str">
+        <f>'Virtual Machines'!O19</f>
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="I17" s="39" t="str">
+        <f>'Virtual Machines'!P19</f>
+        <v>10.1.4.5</v>
+      </c>
+      <c r="J17" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I19,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
+      </c>
+      <c r="K17" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftWindowsServer</v>
+      </c>
+      <c r="L17" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>WindowsServer</v>
+      </c>
+      <c r="M17" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-R2-Datacenter</v>
+      </c>
+      <c r="N17" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L19,".blob.core.windows.net/osdisks/",C17,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/siamadfs01.vhd</v>
+      </c>
+      <c r="O17" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>siamadfs01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P17" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>siam</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="str">
+        <f>'Virtual Machines'!J20</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B18" s="39" t="str">
+        <f>'Virtual Machines'!K20</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C18" s="39" t="str">
+        <f>'Virtual Machines'!A20</f>
+        <v>siamsqls01</v>
+      </c>
+      <c r="D18" s="39" t="str">
+        <f>'Virtual Machines'!B20</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E18" s="39" t="str">
+        <f>'Virtual Machines'!C20</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F18" s="39" t="str">
+        <f>'Virtual Machines'!F20</f>
+        <v>Standard_B2ms</v>
+      </c>
+      <c r="G18" s="39" t="str">
+        <f>'Virtual Machines'!M20</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H18" s="39" t="str">
+        <f>'Virtual Machines'!O20</f>
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="I18" s="39" t="str">
+        <f>'Virtual Machines'!P20</f>
+        <v>10.1.4.6</v>
+      </c>
+      <c r="J18" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I20,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftSQLServer:SQL2012SP4-WS2012R2:Standard</v>
       </c>
-      <c r="K6" s="41" t="str">
+      <c r="K18" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftSQLServer</v>
       </c>
-      <c r="L6" s="41" t="str">
+      <c r="L18" s="39" t="str">
         <f t="shared" si="1"/>
         <v>SQL2012SP4-WS2012R2</v>
       </c>
-      <c r="M6" s="41" t="str">
+      <c r="M18" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Standard</v>
       </c>
-      <c r="N6" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L9,".blob.core.windows.net/osdisks/",C6,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/eucssqls0101.vhd</v>
-      </c>
-      <c r="O6" s="41" t="str">
+      <c r="N18" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L20,".blob.core.windows.net/osdisks/",C18,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/siamsqls01.vhd</v>
+      </c>
+      <c r="O18" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>eucssqls0101-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P6" s="41" t="str">
+        <v>siamsqls01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P18" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>eucs</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="str">
-        <f>'Virtual Machines'!J10</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B7" s="41" t="str">
-        <f>'Virtual Machines'!K10</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C7" s="41" t="str">
-        <f>'Virtual Machines'!A10</f>
-        <v>eucssccm01</v>
-      </c>
-      <c r="D7" s="41" t="str">
-        <f>'Virtual Machines'!B10</f>
+        <v>siam</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="str">
+        <f>'Virtual Machines'!J21</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B19" s="39" t="str">
+        <f>'Virtual Machines'!K21</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C19" s="39" t="str">
+        <f>'Virtual Machines'!A21</f>
+        <v>siamserv01</v>
+      </c>
+      <c r="D19" s="39" t="str">
+        <f>'Virtual Machines'!B21</f>
         <v>Member Server</v>
       </c>
-      <c r="E7" s="41" t="str">
-        <f>'Virtual Machines'!C10</f>
-        <v>eucs.internal</v>
-      </c>
-      <c r="F7" s="41" t="str">
-        <f>'Virtual Machines'!F10</f>
+      <c r="E19" s="39" t="str">
+        <f>'Virtual Machines'!C21</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F19" s="39" t="str">
+        <f>'Virtual Machines'!F21</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="G7" s="41" t="str">
-        <f>'Virtual Machines'!M10</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H7" s="41" t="str">
-        <f>'Virtual Machines'!O10</f>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="I7" s="41" t="str">
-        <f>'Virtual Machines'!P10</f>
-        <v>10.1.1.10</v>
-      </c>
-      <c r="J7" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I10,ImageName!$A$2:$E$13,5,FALSE)</f>
+      <c r="G19" s="39" t="str">
+        <f>'Virtual Machines'!M21</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H19" s="39" t="str">
+        <f>'Virtual Machines'!O21</f>
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="I19" s="39" t="str">
+        <f>'Virtual Machines'!P21</f>
+        <v>10.1.4.7</v>
+      </c>
+      <c r="J19" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I21,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="K7" s="41" t="str">
+      <c r="K19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="L7" s="41" t="str">
+      <c r="L19" s="39" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="M7" s="41" t="str">
+      <c r="M19" s="39" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="N7" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L10,".blob.core.windows.net/osdisks/",C7,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/eucssccm01.vhd</v>
-      </c>
-      <c r="O7" s="41" t="str">
+      <c r="N19" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L21,".blob.core.windows.net/osdisks/",C19,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/siamserv01.vhd</v>
+      </c>
+      <c r="O19" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>eucssccm01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P7" s="41" t="str">
+        <v>siamserv01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P19" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>eucs</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="str">
-        <f>'Virtual Machines'!J11</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B8" s="41" t="str">
-        <f>'Virtual Machines'!K11</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C8" s="41" t="str">
-        <f>'Virtual Machines'!A11</f>
-        <v>eucsscor01</v>
-      </c>
-      <c r="D8" s="41" t="str">
-        <f>'Virtual Machines'!B11</f>
+        <v>siam</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="str">
+        <f>'Virtual Machines'!J22</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B20" s="39" t="str">
+        <f>'Virtual Machines'!K22</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C20" s="39" t="str">
+        <f>'Virtual Machines'!A22</f>
+        <v>siamspsv01</v>
+      </c>
+      <c r="D20" s="39" t="str">
+        <f>'Virtual Machines'!B22</f>
         <v>Member Server</v>
       </c>
-      <c r="E8" s="41" t="str">
-        <f>'Virtual Machines'!C11</f>
-        <v>eucs.internal</v>
-      </c>
-      <c r="F8" s="41" t="str">
-        <f>'Virtual Machines'!F11</f>
+      <c r="E20" s="39" t="str">
+        <f>'Virtual Machines'!C22</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F20" s="39" t="str">
+        <f>'Virtual Machines'!F22</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="G8" s="41" t="str">
-        <f>'Virtual Machines'!M11</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H8" s="41" t="str">
-        <f>'Virtual Machines'!O11</f>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="I8" s="41" t="str">
-        <f>'Virtual Machines'!P11</f>
-        <v>10.1.1.11</v>
-      </c>
-      <c r="J8" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I11,ImageName!$A$2:$E$13,5,FALSE)</f>
+      <c r="G20" s="39" t="str">
+        <f>'Virtual Machines'!M22</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H20" s="39" t="str">
+        <f>'Virtual Machines'!O22</f>
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="I20" s="39" t="str">
+        <f>'Virtual Machines'!P22</f>
+        <v>10.1.4.8</v>
+      </c>
+      <c r="J20" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I22,ImageName!$A$2:$E$13,5,FALSE)</f>
+        <v>MicrosoftSharePoint:MicrosoftSharePointServer:2013</v>
+      </c>
+      <c r="K20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>MicrosoftSharePoint</v>
+      </c>
+      <c r="L20" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>MicrosoftSharePointServer</v>
+      </c>
+      <c r="M20" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="N20" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L22,".blob.core.windows.net/osdisks/",C20,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/siamspsv01.vhd</v>
+      </c>
+      <c r="O20" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>siamspsv01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P20" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>siam</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="str">
+        <f>'Virtual Machines'!J23</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B21" s="39" t="str">
+        <f>'Virtual Machines'!K23</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C21" s="39" t="str">
+        <f>'Virtual Machines'!A23</f>
+        <v>siamport01</v>
+      </c>
+      <c r="D21" s="39" t="str">
+        <f>'Virtual Machines'!B23</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E21" s="39" t="str">
+        <f>'Virtual Machines'!C23</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F21" s="39" t="str">
+        <f>'Virtual Machines'!F23</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G21" s="39" t="str">
+        <f>'Virtual Machines'!M23</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H21" s="39" t="str">
+        <f>'Virtual Machines'!O23</f>
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="I21" s="39" t="str">
+        <f>'Virtual Machines'!P23</f>
+        <v>10.1.4.9</v>
+      </c>
+      <c r="J21" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I23,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="K8" s="41" t="str">
+      <c r="K21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="L8" s="41" t="str">
+      <c r="L21" s="39" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="M8" s="41" t="str">
+      <c r="M21" s="39" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="N8" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L11,".blob.core.windows.net/osdisks/",C8,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/eucsscor01.vhd</v>
-      </c>
-      <c r="O8" s="41" t="str">
+      <c r="N21" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L23,".blob.core.windows.net/osdisks/",C21,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/siamport01.vhd</v>
+      </c>
+      <c r="O21" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>eucsscor01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P8" s="41" t="str">
+        <v>siamport01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P21" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>eucs</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="str">
-        <f>'Virtual Machines'!J12</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B9" s="41" t="str">
-        <f>'Virtual Machines'!K12</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C9" s="41" t="str">
-        <f>'Virtual Machines'!A12</f>
-        <v>eucsscsm01</v>
-      </c>
-      <c r="D9" s="41" t="str">
-        <f>'Virtual Machines'!B12</f>
+        <v>siam</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="str">
+        <f>'Virtual Machines'!J24</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B22" s="39" t="str">
+        <f>'Virtual Machines'!K24</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C22" s="39" t="str">
+        <f>'Virtual Machines'!A24</f>
+        <v>siamscor01</v>
+      </c>
+      <c r="D22" s="39" t="str">
+        <f>'Virtual Machines'!B24</f>
         <v>Member Server</v>
       </c>
-      <c r="E9" s="41" t="str">
-        <f>'Virtual Machines'!C12</f>
-        <v>eucs.internal</v>
-      </c>
-      <c r="F9" s="41" t="str">
-        <f>'Virtual Machines'!F12</f>
-        <v>Standard_B2ms</v>
-      </c>
-      <c r="G9" s="41" t="str">
-        <f>'Virtual Machines'!M12</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H9" s="41" t="str">
-        <f>'Virtual Machines'!O12</f>
-        <v>ttp1-scu-vnet-eucslan</v>
-      </c>
-      <c r="I9" s="41" t="str">
-        <f>'Virtual Machines'!P12</f>
-        <v>10.1.1.12</v>
-      </c>
-      <c r="J9" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I12,ImageName!$A$2:$E$13,5,FALSE)</f>
+      <c r="E22" s="39" t="str">
+        <f>'Virtual Machines'!C24</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F22" s="39" t="str">
+        <f>'Virtual Machines'!F24</f>
+        <v>Standard_B2s</v>
+      </c>
+      <c r="G22" s="39" t="str">
+        <f>'Virtual Machines'!M24</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H22" s="39" t="str">
+        <f>'Virtual Machines'!O24</f>
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="I22" s="39" t="str">
+        <f>'Virtual Machines'!P24</f>
+        <v>10.1.4.10</v>
+      </c>
+      <c r="J22" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I24,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="K9" s="41" t="str">
+      <c r="K22" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="L9" s="41" t="str">
+      <c r="L22" s="39" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="M9" s="41" t="str">
+      <c r="M22" s="39" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="N9" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L12,".blob.core.windows.net/osdisks/",C9,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/eucsscsm01.vhd</v>
-      </c>
-      <c r="O9" s="41" t="str">
+      <c r="N22" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L24,".blob.core.windows.net/osdisks/",C22,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/siamscor01.vhd</v>
+      </c>
+      <c r="O22" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>eucsscsm01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P9" s="41" t="str">
+        <v>siamscor01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P22" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>eucs</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="str">
-        <f>'Virtual Machines'!J13</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B10" s="41" t="str">
-        <f>'Virtual Machines'!K13</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C10" s="41" t="str">
-        <f>'Virtual Machines'!A13</f>
-        <v>useradds01</v>
-      </c>
-      <c r="D10" s="41" t="str">
-        <f>'Virtual Machines'!B13</f>
-        <v>Domain Controller</v>
-      </c>
-      <c r="E10" s="41" t="str">
-        <f>'Virtual Machines'!C13</f>
-        <v>user.internal</v>
-      </c>
-      <c r="F10" s="41" t="str">
-        <f>'Virtual Machines'!F13</f>
+        <v>siam</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="str">
+        <f>'Virtual Machines'!J25</f>
+        <v>CentralUS</v>
+      </c>
+      <c r="B23" s="39" t="str">
+        <f>'Virtual Machines'!K25</f>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C23" s="39" t="str">
+        <f>'Virtual Machines'!A25</f>
+        <v>siamawap01</v>
+      </c>
+      <c r="D23" s="39" t="str">
+        <f>'Virtual Machines'!B25</f>
+        <v>Standalone</v>
+      </c>
+      <c r="E23" s="39">
+        <f>'Virtual Machines'!C25</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="39" t="str">
+        <f>'Virtual Machines'!F25</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="G10" s="41" t="str">
-        <f>'Virtual Machines'!M13</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H10" s="41" t="str">
-        <f>'Virtual Machines'!O13</f>
-        <v>ttp1-scu-vnet-userlan</v>
-      </c>
-      <c r="I10" s="41" t="str">
-        <f>'Virtual Machines'!P13</f>
-        <v>10.1.2.4</v>
-      </c>
-      <c r="J10" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I13,ImageName!$A$2:$E$13,5,FALSE)</f>
+      <c r="G23" s="39" t="str">
+        <f>'Virtual Machines'!M25</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="H23" s="39" t="str">
+        <f>'Virtual Machines'!O25</f>
+        <v>xxx-cus-vnet-dmz3</v>
+      </c>
+      <c r="I23" s="39" t="str">
+        <f>'Virtual Machines'!P25</f>
+        <v>10.1.5.4</v>
+      </c>
+      <c r="J23" s="39" t="str">
+        <f>VLOOKUP('Virtual Machines'!I25,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="K10" s="41" t="str">
+      <c r="K23" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="L10" s="41" t="str">
+      <c r="L23" s="39" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="M10" s="41" t="str">
+      <c r="M23" s="39" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="N10" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L13,".blob.core.windows.net/osdisks/",C10,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/useradds01.vhd</v>
-      </c>
-      <c r="O10" s="41" t="str">
+      <c r="N23" s="39" t="str">
+        <f>CONCATENATE("https://",'Virtual Machines'!L25,".blob.core.windows.net/osdisks/",C23,".vhd")</f>
+        <v>https://xxxcusvmstore.blob.core.windows.net/osdisks/siamawap01.vhd</v>
+      </c>
+      <c r="O23" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>useradds01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P10" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>user</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="str">
-        <f>'Virtual Machines'!J14</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B11" s="41" t="str">
-        <f>'Virtual Machines'!K14</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C11" s="41" t="str">
-        <f>'Virtual Machines'!A14</f>
-        <v>usermail01</v>
-      </c>
-      <c r="D11" s="41" t="str">
-        <f>'Virtual Machines'!B14</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E11" s="41" t="str">
-        <f>'Virtual Machines'!C14</f>
-        <v>user.internal</v>
-      </c>
-      <c r="F11" s="41" t="str">
-        <f>'Virtual Machines'!F14</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G11" s="41" t="str">
-        <f>'Virtual Machines'!M14</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H11" s="41" t="str">
-        <f>'Virtual Machines'!O14</f>
-        <v>ttp1-scu-vnet-userlan</v>
-      </c>
-      <c r="I11" s="41" t="str">
-        <f>'Virtual Machines'!P14</f>
-        <v>10.1.2.5</v>
-      </c>
-      <c r="J11" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I14,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K11" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L11" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M11" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N11" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L14,".blob.core.windows.net/osdisks/",C11,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/usermail01.vhd</v>
-      </c>
-      <c r="O11" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>usermail01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P11" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>user</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="str">
-        <f>'Virtual Machines'!J15</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B12" s="41" t="str">
-        <f>'Virtual Machines'!K15</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C12" s="41" t="str">
-        <f>'Virtual Machines'!A15</f>
-        <v>useraadc01</v>
-      </c>
-      <c r="D12" s="41" t="str">
-        <f>'Virtual Machines'!B15</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E12" s="41" t="str">
-        <f>'Virtual Machines'!C15</f>
-        <v>user.internal</v>
-      </c>
-      <c r="F12" s="41" t="str">
-        <f>'Virtual Machines'!F15</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G12" s="41" t="str">
-        <f>'Virtual Machines'!M15</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H12" s="41" t="str">
-        <f>'Virtual Machines'!O15</f>
-        <v>ttp1-scu-vnet-userlan</v>
-      </c>
-      <c r="I12" s="41" t="str">
-        <f>'Virtual Machines'!P15</f>
-        <v>10.1.2.6</v>
-      </c>
-      <c r="J12" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I15,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K12" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L12" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M12" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N12" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L15,".blob.core.windows.net/osdisks/",C12,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/useraadc01.vhd</v>
-      </c>
-      <c r="O12" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>useraadc01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P12" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>user</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="str">
-        <f>'Virtual Machines'!J16</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B13" s="41" t="str">
-        <f>'Virtual Machines'!K16</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C13" s="41" t="str">
-        <f>'Virtual Machines'!A16</f>
-        <v>useradfs01</v>
-      </c>
-      <c r="D13" s="41" t="str">
-        <f>'Virtual Machines'!B16</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E13" s="41" t="str">
-        <f>'Virtual Machines'!C16</f>
-        <v>user.internal</v>
-      </c>
-      <c r="F13" s="41" t="str">
-        <f>'Virtual Machines'!F16</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G13" s="41" t="str">
-        <f>'Virtual Machines'!M16</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H13" s="41" t="str">
-        <f>'Virtual Machines'!O16</f>
-        <v>ttp1-scu-vnet-userlan</v>
-      </c>
-      <c r="I13" s="41" t="str">
-        <f>'Virtual Machines'!P16</f>
-        <v>10.1.2.7</v>
-      </c>
-      <c r="J13" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I16,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K13" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L13" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M13" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N13" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L16,".blob.core.windows.net/osdisks/",C13,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/useradfs01.vhd</v>
-      </c>
-      <c r="O13" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>useradfs01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P13" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>user</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="str">
-        <f>'Virtual Machines'!J17</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B14" s="41" t="str">
-        <f>'Virtual Machines'!K17</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C14" s="41" t="str">
-        <f>'Virtual Machines'!A17</f>
-        <v>userclient</v>
-      </c>
-      <c r="D14" s="41" t="str">
-        <f>'Virtual Machines'!B17</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E14" s="41" t="str">
-        <f>'Virtual Machines'!C17</f>
-        <v>user.internal</v>
-      </c>
-      <c r="F14" s="41" t="str">
-        <f>'Virtual Machines'!F17</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G14" s="41" t="str">
-        <f>'Virtual Machines'!M17</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H14" s="41" t="str">
-        <f>'Virtual Machines'!O17</f>
-        <v>ttp1-scu-vnet-userlan</v>
-      </c>
-      <c r="I14" s="41" t="str">
-        <f>'Virtual Machines'!P17</f>
-        <v>10.1.2.8</v>
-      </c>
-      <c r="J14" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I17,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsDesktop:Windows-10:RS3-Pro</v>
-      </c>
-      <c r="K14" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsDesktop</v>
-      </c>
-      <c r="L14" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>Windows-10</v>
-      </c>
-      <c r="M14" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>RS3-Pro</v>
-      </c>
-      <c r="N14" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L17,".blob.core.windows.net/osdisks/",C14,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/userclient.vhd</v>
-      </c>
-      <c r="O14" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>userclient-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P14" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>user</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="str">
-        <f>'Virtual Machines'!J18</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B15" s="41" t="str">
-        <f>'Virtual Machines'!K18</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C15" s="41" t="str">
-        <f>'Virtual Machines'!A18</f>
-        <v>userawap01</v>
-      </c>
-      <c r="D15" s="41" t="str">
-        <f>'Virtual Machines'!B18</f>
-        <v>Standalone</v>
-      </c>
-      <c r="E15" s="41">
-        <f>'Virtual Machines'!C18</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="41" t="str">
-        <f>'Virtual Machines'!F18</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G15" s="41" t="str">
-        <f>'Virtual Machines'!M18</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H15" s="41" t="str">
-        <f>'Virtual Machines'!O18</f>
-        <v>ttp1-scu-vnet-userdmz</v>
-      </c>
-      <c r="I15" s="41" t="str">
-        <f>'Virtual Machines'!P18</f>
-        <v>10.1.3.4</v>
-      </c>
-      <c r="J15" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I18,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K15" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L15" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M15" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N15" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L18,".blob.core.windows.net/osdisks/",C15,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/userawap01.vhd</v>
-      </c>
-      <c r="O15" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>userawap01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P15" s="41" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="str">
-        <f>'Virtual Machines'!J19</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B16" s="41" t="str">
-        <f>'Virtual Machines'!K19</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C16" s="41" t="str">
-        <f>'Virtual Machines'!A19</f>
-        <v>siamadds01</v>
-      </c>
-      <c r="D16" s="41" t="str">
-        <f>'Virtual Machines'!B19</f>
-        <v>Domain Controller</v>
-      </c>
-      <c r="E16" s="41" t="str">
-        <f>'Virtual Machines'!C19</f>
-        <v>siam.internal</v>
-      </c>
-      <c r="F16" s="41" t="str">
-        <f>'Virtual Machines'!F19</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G16" s="41" t="str">
-        <f>'Virtual Machines'!M19</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H16" s="41" t="str">
-        <f>'Virtual Machines'!O19</f>
-        <v>ttp1-scu-vnet-siamlan</v>
-      </c>
-      <c r="I16" s="41" t="str">
-        <f>'Virtual Machines'!P19</f>
-        <v>10.1.4.4</v>
-      </c>
-      <c r="J16" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I19,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K16" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L16" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M16" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N16" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L19,".blob.core.windows.net/osdisks/",C16,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/siamadds01.vhd</v>
-      </c>
-      <c r="O16" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>siamadds01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P16" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>siam</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="str">
-        <f>'Virtual Machines'!J20</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B17" s="41" t="str">
-        <f>'Virtual Machines'!K20</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C17" s="41" t="str">
-        <f>'Virtual Machines'!A20</f>
-        <v>siamadfs01</v>
-      </c>
-      <c r="D17" s="41" t="str">
-        <f>'Virtual Machines'!B20</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E17" s="41" t="str">
-        <f>'Virtual Machines'!C20</f>
-        <v>siam.internal</v>
-      </c>
-      <c r="F17" s="41" t="str">
-        <f>'Virtual Machines'!F20</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G17" s="41" t="str">
-        <f>'Virtual Machines'!M20</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H17" s="41" t="str">
-        <f>'Virtual Machines'!O20</f>
-        <v>ttp1-scu-vnet-siamlan</v>
-      </c>
-      <c r="I17" s="41" t="str">
-        <f>'Virtual Machines'!P20</f>
-        <v>10.1.4.5</v>
-      </c>
-      <c r="J17" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I20,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K17" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L17" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N17" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L20,".blob.core.windows.net/osdisks/",C17,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/siamadfs01.vhd</v>
-      </c>
-      <c r="O17" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>siamadfs01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P17" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>siam</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="str">
-        <f>'Virtual Machines'!J21</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B18" s="41" t="str">
-        <f>'Virtual Machines'!K21</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C18" s="41" t="str">
-        <f>'Virtual Machines'!A21</f>
-        <v>siamsqls01</v>
-      </c>
-      <c r="D18" s="41" t="str">
-        <f>'Virtual Machines'!B21</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E18" s="41" t="str">
-        <f>'Virtual Machines'!C21</f>
-        <v>siam.internal</v>
-      </c>
-      <c r="F18" s="41" t="str">
-        <f>'Virtual Machines'!F21</f>
-        <v>Standard_B2ms</v>
-      </c>
-      <c r="G18" s="41" t="str">
-        <f>'Virtual Machines'!M21</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H18" s="41" t="str">
-        <f>'Virtual Machines'!O21</f>
-        <v>ttp1-scu-vnet-siamlan</v>
-      </c>
-      <c r="I18" s="41" t="str">
-        <f>'Virtual Machines'!P21</f>
-        <v>10.1.4.6</v>
-      </c>
-      <c r="J18" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I21,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftSQLServer:SQL2012SP4-WS2012R2:Standard</v>
-      </c>
-      <c r="K18" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftSQLServer</v>
-      </c>
-      <c r="L18" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>SQL2012SP4-WS2012R2</v>
-      </c>
-      <c r="M18" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>Standard</v>
-      </c>
-      <c r="N18" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L21,".blob.core.windows.net/osdisks/",C18,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/siamsqls01.vhd</v>
-      </c>
-      <c r="O18" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>siamsqls01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P18" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>siam</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="str">
-        <f>'Virtual Machines'!J22</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B19" s="41" t="str">
-        <f>'Virtual Machines'!K22</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C19" s="41" t="str">
-        <f>'Virtual Machines'!A22</f>
-        <v>siamserv01</v>
-      </c>
-      <c r="D19" s="41" t="str">
-        <f>'Virtual Machines'!B22</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E19" s="41" t="str">
-        <f>'Virtual Machines'!C22</f>
-        <v>siam.internal</v>
-      </c>
-      <c r="F19" s="41" t="str">
-        <f>'Virtual Machines'!F22</f>
-        <v>Standard_B2ms</v>
-      </c>
-      <c r="G19" s="41" t="str">
-        <f>'Virtual Machines'!M22</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H19" s="41" t="str">
-        <f>'Virtual Machines'!O22</f>
-        <v>ttp1-scu-vnet-siamlan</v>
-      </c>
-      <c r="I19" s="41" t="str">
-        <f>'Virtual Machines'!P22</f>
-        <v>10.1.4.7</v>
-      </c>
-      <c r="J19" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I22,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K19" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L19" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M19" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N19" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L22,".blob.core.windows.net/osdisks/",C19,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/siamserv01.vhd</v>
-      </c>
-      <c r="O19" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>siamserv01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P19" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>siam</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="str">
-        <f>'Virtual Machines'!J23</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B20" s="41" t="str">
-        <f>'Virtual Machines'!K23</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C20" s="41" t="str">
-        <f>'Virtual Machines'!A23</f>
-        <v>siamspsv01</v>
-      </c>
-      <c r="D20" s="41" t="str">
-        <f>'Virtual Machines'!B23</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E20" s="41" t="str">
-        <f>'Virtual Machines'!C23</f>
-        <v>siam.internal</v>
-      </c>
-      <c r="F20" s="41" t="str">
-        <f>'Virtual Machines'!F23</f>
-        <v>Standard_B2ms</v>
-      </c>
-      <c r="G20" s="41" t="str">
-        <f>'Virtual Machines'!M23</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H20" s="41" t="str">
-        <f>'Virtual Machines'!O23</f>
-        <v>ttp1-scu-vnet-siamlan</v>
-      </c>
-      <c r="I20" s="41" t="str">
-        <f>'Virtual Machines'!P23</f>
-        <v>10.1.4.8</v>
-      </c>
-      <c r="J20" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I23,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K20" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L20" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M20" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N20" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L23,".blob.core.windows.net/osdisks/",C20,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/siamspsv01.vhd</v>
-      </c>
-      <c r="O20" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>siamspsv01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P20" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>siam</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="str">
-        <f>'Virtual Machines'!J24</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B21" s="41" t="str">
-        <f>'Virtual Machines'!K24</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C21" s="41" t="str">
-        <f>'Virtual Machines'!A24</f>
-        <v>siamport01</v>
-      </c>
-      <c r="D21" s="41" t="str">
-        <f>'Virtual Machines'!B24</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E21" s="41" t="str">
-        <f>'Virtual Machines'!C24</f>
-        <v>siam.internal</v>
-      </c>
-      <c r="F21" s="41" t="str">
-        <f>'Virtual Machines'!F24</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G21" s="41" t="str">
-        <f>'Virtual Machines'!M24</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H21" s="41" t="str">
-        <f>'Virtual Machines'!O24</f>
-        <v>ttp1-scu-vnet-siamlan</v>
-      </c>
-      <c r="I21" s="41" t="str">
-        <f>'Virtual Machines'!P24</f>
-        <v>10.1.4.9</v>
-      </c>
-      <c r="J21" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I24,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K21" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L21" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M21" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N21" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L24,".blob.core.windows.net/osdisks/",C21,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/siamport01.vhd</v>
-      </c>
-      <c r="O21" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>siamport01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P21" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>siam</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="str">
-        <f>'Virtual Machines'!J25</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B22" s="41" t="str">
-        <f>'Virtual Machines'!K25</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C22" s="41" t="str">
-        <f>'Virtual Machines'!A25</f>
-        <v>siamscor01</v>
-      </c>
-      <c r="D22" s="41" t="str">
-        <f>'Virtual Machines'!B25</f>
-        <v>Member Server</v>
-      </c>
-      <c r="E22" s="41" t="str">
-        <f>'Virtual Machines'!C25</f>
-        <v>siam.internal</v>
-      </c>
-      <c r="F22" s="41" t="str">
-        <f>'Virtual Machines'!F25</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G22" s="41" t="str">
-        <f>'Virtual Machines'!M25</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H22" s="41" t="str">
-        <f>'Virtual Machines'!O25</f>
-        <v>ttp1-scu-vnet-siamlan</v>
-      </c>
-      <c r="I22" s="41" t="str">
-        <f>'Virtual Machines'!P25</f>
-        <v>10.1.4.10</v>
-      </c>
-      <c r="J22" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I25,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K22" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L22" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M22" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N22" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L25,".blob.core.windows.net/osdisks/",C22,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/siamscor01.vhd</v>
-      </c>
-      <c r="O22" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>siamscor01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P22" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>siam</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="str">
-        <f>'Virtual Machines'!J26</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B23" s="41" t="str">
-        <f>'Virtual Machines'!K26</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C23" s="41" t="str">
-        <f>'Virtual Machines'!A26</f>
-        <v>siamawap01</v>
-      </c>
-      <c r="D23" s="41" t="str">
-        <f>'Virtual Machines'!B26</f>
-        <v>Standalone</v>
-      </c>
-      <c r="E23" s="41">
-        <f>'Virtual Machines'!C26</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="41" t="str">
-        <f>'Virtual Machines'!F26</f>
-        <v>Standard_B2s</v>
-      </c>
-      <c r="G23" s="41" t="str">
-        <f>'Virtual Machines'!M26</f>
-        <v>ttp1-scu-vnet</v>
-      </c>
-      <c r="H23" s="41" t="str">
-        <f>'Virtual Machines'!O26</f>
-        <v>ttp1-scu-vnet-siamdmz</v>
-      </c>
-      <c r="I23" s="41" t="str">
-        <f>'Virtual Machines'!P26</f>
-        <v>10.1.5.4</v>
-      </c>
-      <c r="J23" s="41" t="str">
-        <f>VLOOKUP('Virtual Machines'!I26,ImageName!$A$2:$E$13,5,FALSE)</f>
-        <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
-      </c>
-      <c r="K23" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MicrosoftWindowsServer</v>
-      </c>
-      <c r="L23" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>WindowsServer</v>
-      </c>
-      <c r="M23" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>2012-R2-Datacenter</v>
-      </c>
-      <c r="N23" s="41" t="str">
-        <f>CONCATENATE("https://",'Virtual Machines'!L26,".blob.core.windows.net/osdisks/",C23,".vhd")</f>
-        <v>https://ttp1scuvmstore.blob.core.windows.net/osdisks/siamawap01.vhd</v>
-      </c>
-      <c r="O23" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v>siamawap01-ttp1-scu.SouthCentralUS.cloudapp.azure.com</v>
-      </c>
-      <c r="P23" s="41" t="e">
+        <v>siamawap01-xxx-cus.CentralUS.cloudapp.azure.com</v>
+      </c>
+      <c r="P23" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
@@ -4957,7 +4998,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4965,38 +5006,39 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="str">
+      <c r="A2" s="39" t="str">
         <f>'Virtual Machines'!D1</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B2" s="41" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B2" s="39" t="str">
         <f>CONCATENATE('Virtual Machines'!B1,"-",'Virtual Machines'!F1)</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C2" s="41" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C2" s="39" t="str">
         <f>CONCATENATE('Virtual Machines'!B1,'Virtual Machines'!F1,"vmstore")</f>
-        <v>ttp1scuvmstore</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>61</v>
+        <v>xxxcusvmstore</v>
+      </c>
+      <c r="D2" s="39" t="str">
+        <f>'Virtual Machines'!M28</f>
+        <v>Standard_LRS</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5013,13 +5055,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9B738B3-BD4A-714F-B62D-47A3C97C3488}">
-          <x14:formula1>
-            <xm:f>StorageTypes!$B$1:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6FC19159-186B-A14C-9DA5-F7B95DA0931F}">
           <x14:formula1>
             <xm:f>Locations!$A$1:$A$28</xm:f>
@@ -5037,199 +5073,223 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="str">
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="str">
         <f>'Virtual Machines'!$D$1</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B2" s="38" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B2" s="36" t="str">
         <f>CONCATENATE('Virtual Machines'!$B$1,"-",'Virtual Machines'!$F$1)</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C2" s="35" t="str">
+        <f>'Virtual Machines'!J30</f>
+        <v>xxx-cus-vnet-dmz3</v>
+      </c>
+      <c r="D2" s="35" t="str">
+        <f>'Virtual Machines'!$J$28</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="E2" s="35" t="str">
+        <f>'Virtual Machines'!$K$28</f>
+        <v>10.1.0.0/16</v>
+      </c>
+      <c r="F2" s="35" t="str">
+        <f>'Virtual Machines'!K30</f>
+        <v>10.1.1.0/24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="str">
         <f>'Virtual Machines'!$D$1</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B3" s="38" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B3" s="36" t="str">
         <f>CONCATENATE('Virtual Machines'!$B$1,"-",'Virtual Machines'!$F$1)</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C3" s="35" t="str">
+        <f>'Virtual Machines'!J31</f>
+        <v>xxx-cus-vnet-lan3</v>
+      </c>
+      <c r="D3" s="35" t="str">
+        <f>'Virtual Machines'!$J$28</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="E3" s="35" t="str">
+        <f>'Virtual Machines'!$K$28</f>
+        <v>10.1.0.0/16</v>
+      </c>
+      <c r="F3" s="35" t="str">
+        <f>'Virtual Machines'!K31</f>
+        <v>10.1.2.0/24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="str">
         <f>'Virtual Machines'!$D$1</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B4" s="38" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B4" s="36" t="str">
         <f>CONCATENATE('Virtual Machines'!$B$1,"-",'Virtual Machines'!$F$1)</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C4" s="35" t="str">
+        <f>'Virtual Machines'!J32</f>
+        <v>xxx-cus-vnet-dmz2</v>
+      </c>
+      <c r="D4" s="35" t="str">
+        <f>'Virtual Machines'!$J$28</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="E4" s="35" t="str">
+        <f>'Virtual Machines'!$K$28</f>
+        <v>10.1.0.0/16</v>
+      </c>
+      <c r="F4" s="35" t="str">
+        <f>'Virtual Machines'!K32</f>
+        <v>10.1.3.0/24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="str">
         <f>'Virtual Machines'!$D$1</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B5" s="38" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B5" s="36" t="str">
         <f>CONCATENATE('Virtual Machines'!$B$1,"-",'Virtual Machines'!$F$1)</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="str">
+        <v>xxx-cus</v>
+      </c>
+      <c r="C5" s="35" t="str">
+        <f>'Virtual Machines'!J33</f>
+        <v>xxx-cus-vnet-lan2</v>
+      </c>
+      <c r="D5" s="35" t="str">
+        <f>'Virtual Machines'!$J$28</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="E5" s="35" t="str">
+        <f>'Virtual Machines'!$K$28</f>
+        <v>10.1.0.0/16</v>
+      </c>
+      <c r="F5" s="35" t="str">
+        <f>'Virtual Machines'!K33</f>
+        <v>10.1.4.0/24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="str">
         <f>'Virtual Machines'!$D$1</f>
-        <v>SouthCentralUS</v>
-      </c>
-      <c r="B6" s="38" t="str">
+        <v>CentralUS</v>
+      </c>
+      <c r="B6" s="36" t="str">
         <f>CONCATENATE('Virtual Machines'!$B$1,"-",'Virtual Machines'!$F$1)</f>
-        <v>ttp1-scu</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="14"/>
+        <v>xxx-cus</v>
+      </c>
+      <c r="C6" s="35" t="str">
+        <f>'Virtual Machines'!J34</f>
+        <v>xxx-cus-vnet-lan1</v>
+      </c>
+      <c r="D6" s="35" t="str">
+        <f>'Virtual Machines'!$J$28</f>
+        <v>xxx-cus-vnet</v>
+      </c>
+      <c r="E6" s="35" t="str">
+        <f>'Virtual Machines'!$K$28</f>
+        <v>10.1.0.0/16</v>
+      </c>
+      <c r="F6" s="35" t="str">
+        <f>'Virtual Machines'!K34</f>
+        <v>10.1.5.0/24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="63"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="15"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="63"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="14"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="63"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="14"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="63"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="14"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="63"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="16"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="63"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="63"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="14"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="63"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5288,7 +5348,7 @@
         <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5296,7 +5356,7 @@
         <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5304,7 +5364,7 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5312,7 +5372,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5320,7 +5380,7 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5328,7 +5388,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5336,7 +5396,7 @@
         <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5344,7 +5404,7 @@
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5352,7 +5412,7 @@
         <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5360,7 +5420,7 @@
         <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5368,7 +5428,7 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5376,7 +5436,7 @@
         <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5384,7 +5444,7 @@
         <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5392,7 +5452,7 @@
         <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5400,7 +5460,7 @@
         <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5408,7 +5468,7 @@
         <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5416,7 +5476,7 @@
         <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -5424,7 +5484,7 @@
         <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5432,7 +5492,7 @@
         <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5440,7 +5500,7 @@
         <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -5448,7 +5508,7 @@
         <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5456,7 +5516,7 @@
         <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -5464,7 +5524,7 @@
         <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -5472,7 +5532,7 @@
         <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5480,7 +5540,7 @@
         <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5488,7 +5548,7 @@
         <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -5496,7 +5556,7 @@
         <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">

--- a/AzureBuilder.xlsx
+++ b/AzureBuilder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejolley/Desktop/AzureLab/Scripts copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejolley/Desktop/AzureLab/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00A6972E-1D18-3549-9E60-D1DB2FFF29C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B96E3989-BAFE-2E40-8794-543AE36DC140}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1160" windowWidth="25980" windowHeight="20140" xr2:uid="{3993DB71-EDE7-834C-BAC2-EF7DF49B39F9}"/>
   </bookViews>
@@ -530,9 +530,6 @@
     <t>DC</t>
   </si>
   <si>
-    <t>Lab ID</t>
-  </si>
-  <si>
     <t>scu</t>
   </si>
   <si>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>ensure they are all accounted for both above and in CSV tab</t>
+  </si>
+  <si>
+    <t>Env ID</t>
   </si>
 </sst>
 </file>
@@ -1039,12 +1039,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1055,15 +1049,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1422,10 +1422,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>5</v>
@@ -1434,7 +1434,7 @@
         <v>132</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" s="48" t="str">
         <f>VLOOKUP(D1,Locations!A:B,2,FALSE)</f>
@@ -1520,7 +1520,7 @@
         <v>27</v>
       </c>
       <c r="N3" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O3" s="57" t="s">
         <v>42</v>
@@ -1589,14 +1589,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O4" s="24" t="str">
         <f>CONCATENATE(M4,"-",N4)</f>
         <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="6">
         <f>$T4/730</f>
@@ -1660,14 +1660,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O5" s="24" t="str">
         <f t="shared" ref="O5:O25" si="4">CONCATENATE(M5,"-",N5)</f>
         <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="6">
         <f t="shared" ref="Q5:Q25" si="5">$T5/730</f>
@@ -1733,14 +1733,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O6" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="5"/>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>162</v>
@@ -1806,14 +1806,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O7" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7">
         <f t="shared" si="5"/>
@@ -1879,14 +1879,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O8" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="5"/>
@@ -1952,14 +1952,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O9" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="5"/>
@@ -2025,14 +2025,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O10" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="5"/>
@@ -2055,7 +2055,7 @@
       <c r="A11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="67" t="s">
         <v>162</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -2067,7 +2067,7 @@
       <c r="E11" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="67" t="s">
         <v>68</v>
       </c>
       <c r="G11" s="49">
@@ -2078,34 +2078,34 @@
         <f>VLOOKUP(F11,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="71" t="str">
+      <c r="J11" s="68" t="str">
         <f t="shared" si="0"/>
         <v>CentralUS</v>
       </c>
-      <c r="K11" s="71" t="str">
+      <c r="K11" s="68" t="str">
         <f t="shared" si="1"/>
         <v>xxx-cus</v>
       </c>
-      <c r="L11" s="71" t="str">
+      <c r="L11" s="68" t="str">
         <f t="shared" si="2"/>
         <v>xxxcusvmstore</v>
       </c>
-      <c r="M11" s="71" t="str">
+      <c r="M11" s="68" t="str">
         <f t="shared" si="3"/>
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="O11" s="71" t="str">
+        <v>230</v>
+      </c>
+      <c r="O11" s="68" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan1</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7">
         <f t="shared" si="5"/>
@@ -2128,7 +2128,7 @@
       <c r="A12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="67" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -2140,7 +2140,7 @@
       <c r="E12" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="67" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="49">
@@ -2151,34 +2151,34 @@
         <f>VLOOKUP(F12,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="71" t="str">
+      <c r="J12" s="68" t="str">
         <f t="shared" si="0"/>
         <v>CentralUS</v>
       </c>
-      <c r="K12" s="71" t="str">
+      <c r="K12" s="68" t="str">
         <f t="shared" si="1"/>
         <v>xxx-cus</v>
       </c>
-      <c r="L12" s="71" t="str">
+      <c r="L12" s="68" t="str">
         <f t="shared" si="2"/>
         <v>xxxcusvmstore</v>
       </c>
-      <c r="M12" s="71" t="str">
+      <c r="M12" s="68" t="str">
         <f t="shared" si="3"/>
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="O12" s="71" t="str">
+        <v>231</v>
+      </c>
+      <c r="O12" s="68" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan2</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="7">
         <f t="shared" si="5"/>
@@ -2201,7 +2201,7 @@
       <c r="A13" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="67" t="s">
         <v>162</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -2213,7 +2213,7 @@
       <c r="E13" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="67" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="49">
@@ -2224,34 +2224,34 @@
         <f>VLOOKUP(F13,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="71" t="str">
+      <c r="J13" s="68" t="str">
         <f t="shared" si="0"/>
         <v>CentralUS</v>
       </c>
-      <c r="K13" s="71" t="str">
+      <c r="K13" s="68" t="str">
         <f t="shared" si="1"/>
         <v>xxx-cus</v>
       </c>
-      <c r="L13" s="71" t="str">
+      <c r="L13" s="68" t="str">
         <f t="shared" si="2"/>
         <v>xxxcusvmstore</v>
       </c>
-      <c r="M13" s="71" t="str">
+      <c r="M13" s="68" t="str">
         <f t="shared" si="3"/>
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="O13" s="71" t="str">
+        <v>231</v>
+      </c>
+      <c r="O13" s="68" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan2</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7">
         <f t="shared" si="5"/>
@@ -2274,7 +2274,7 @@
       <c r="A14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="67" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -2286,7 +2286,7 @@
       <c r="E14" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="67" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="49">
@@ -2297,34 +2297,34 @@
         <f>VLOOKUP(F14,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="71" t="str">
+      <c r="J14" s="68" t="str">
         <f t="shared" si="0"/>
         <v>CentralUS</v>
       </c>
-      <c r="K14" s="71" t="str">
+      <c r="K14" s="68" t="str">
         <f t="shared" si="1"/>
         <v>xxx-cus</v>
       </c>
-      <c r="L14" s="71" t="str">
+      <c r="L14" s="68" t="str">
         <f t="shared" si="2"/>
         <v>xxxcusvmstore</v>
       </c>
-      <c r="M14" s="71" t="str">
+      <c r="M14" s="68" t="str">
         <f t="shared" si="3"/>
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="O14" s="71" t="str">
+        <v>231</v>
+      </c>
+      <c r="O14" s="68" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan2</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="5"/>
@@ -2347,7 +2347,7 @@
       <c r="A15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="67" t="s">
         <v>162</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -2359,7 +2359,7 @@
       <c r="E15" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="67" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="49">
@@ -2370,34 +2370,34 @@
         <f>VLOOKUP(F15,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="71" t="str">
+      <c r="J15" s="68" t="str">
         <f t="shared" si="0"/>
         <v>CentralUS</v>
       </c>
-      <c r="K15" s="71" t="str">
+      <c r="K15" s="68" t="str">
         <f t="shared" si="1"/>
         <v>xxx-cus</v>
       </c>
-      <c r="L15" s="71" t="str">
+      <c r="L15" s="68" t="str">
         <f t="shared" si="2"/>
         <v>xxxcusvmstore</v>
       </c>
-      <c r="M15" s="71" t="str">
+      <c r="M15" s="68" t="str">
         <f t="shared" si="3"/>
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="O15" s="71" t="str">
+        <v>231</v>
+      </c>
+      <c r="O15" s="68" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan2</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q15" s="7">
         <f t="shared" si="5"/>
@@ -2420,7 +2420,7 @@
       <c r="A16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="67" t="s">
         <v>162</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -2432,7 +2432,7 @@
       <c r="E16" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="67" t="s">
         <v>67</v>
       </c>
       <c r="G16" s="49">
@@ -2443,34 +2443,34 @@
         <f>VLOOKUP(F16,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="71" t="str">
+      <c r="J16" s="68" t="str">
         <f t="shared" si="0"/>
         <v>CentralUS</v>
       </c>
-      <c r="K16" s="71" t="str">
+      <c r="K16" s="68" t="str">
         <f t="shared" si="1"/>
         <v>xxx-cus</v>
       </c>
-      <c r="L16" s="71" t="str">
+      <c r="L16" s="68" t="str">
         <f t="shared" si="2"/>
         <v>xxxcusvmstore</v>
       </c>
-      <c r="M16" s="71" t="str">
+      <c r="M16" s="68" t="str">
         <f t="shared" si="3"/>
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="O16" s="71" t="str">
+        <v>231</v>
+      </c>
+      <c r="O16" s="68" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan2</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7">
         <f t="shared" si="5"/>
@@ -2493,7 +2493,7 @@
       <c r="A17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="67" t="s">
         <v>161</v>
       </c>
       <c r="C17" s="21"/>
@@ -2503,7 +2503,7 @@
       <c r="E17" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="67" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="49">
@@ -2514,34 +2514,34 @@
         <f>VLOOKUP(F17,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="71" t="str">
+      <c r="J17" s="68" t="str">
         <f t="shared" si="0"/>
         <v>CentralUS</v>
       </c>
-      <c r="K17" s="71" t="str">
+      <c r="K17" s="68" t="str">
         <f t="shared" si="1"/>
         <v>xxx-cus</v>
       </c>
-      <c r="L17" s="71" t="str">
+      <c r="L17" s="68" t="str">
         <f t="shared" si="2"/>
         <v>xxxcusvmstore</v>
       </c>
-      <c r="M17" s="71" t="str">
+      <c r="M17" s="68" t="str">
         <f t="shared" si="3"/>
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="O17" s="71" t="str">
+        <v>232</v>
+      </c>
+      <c r="O17" s="68" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-dmz2</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7">
         <f t="shared" si="5"/>
@@ -2564,7 +2564,7 @@
       <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="67" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -2576,7 +2576,7 @@
       <c r="E18" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="67" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="49">
@@ -2587,34 +2587,34 @@
         <f>VLOOKUP(F18,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I18" s="70" t="s">
+      <c r="I18" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="71" t="str">
+      <c r="J18" s="68" t="str">
         <f t="shared" si="0"/>
         <v>CentralUS</v>
       </c>
-      <c r="K18" s="71" t="str">
+      <c r="K18" s="68" t="str">
         <f t="shared" si="1"/>
         <v>xxx-cus</v>
       </c>
-      <c r="L18" s="71" t="str">
+      <c r="L18" s="68" t="str">
         <f t="shared" si="2"/>
         <v>xxxcusvmstore</v>
       </c>
-      <c r="M18" s="71" t="str">
+      <c r="M18" s="68" t="str">
         <f t="shared" si="3"/>
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="O18" s="71" t="str">
+        <v>233</v>
+      </c>
+      <c r="O18" s="68" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="7">
         <f t="shared" si="5"/>
@@ -2637,7 +2637,7 @@
       <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="67" t="s">
         <v>162</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -2649,7 +2649,7 @@
       <c r="E19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="67" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="49">
@@ -2660,34 +2660,34 @@
         <f>VLOOKUP(F19,MachineTypes!$A$1:$D$7,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="71" t="str">
+      <c r="J19" s="68" t="str">
         <f t="shared" si="0"/>
         <v>CentralUS</v>
       </c>
-      <c r="K19" s="71" t="str">
+      <c r="K19" s="68" t="str">
         <f t="shared" si="1"/>
         <v>xxx-cus</v>
       </c>
-      <c r="L19" s="71" t="str">
+      <c r="L19" s="68" t="str">
         <f t="shared" si="2"/>
         <v>xxxcusvmstore</v>
       </c>
-      <c r="M19" s="71" t="str">
+      <c r="M19" s="68" t="str">
         <f t="shared" si="3"/>
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="O19" s="71" t="str">
+        <v>233</v>
+      </c>
+      <c r="O19" s="68" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7">
         <f t="shared" si="5"/>
@@ -2753,14 +2753,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O20" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="5"/>
@@ -2826,14 +2826,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O21" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="7">
         <f t="shared" si="5"/>
@@ -2899,14 +2899,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O22" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="5"/>
@@ -2972,14 +2972,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O23" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="5"/>
@@ -3045,14 +3045,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O24" s="24" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-lan3</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="5"/>
@@ -3116,14 +3116,14 @@
         <v>xxx-cus-vnet</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O25" s="25" t="str">
         <f t="shared" si="4"/>
         <v>xxx-cus-vnet-dmz3</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="11">
         <f t="shared" si="5"/>
@@ -3161,21 +3161,21 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="J27" s="68" t="s">
+      <c r="A27" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="J27" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="69" t="s">
+      <c r="K27" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="M27" s="68" t="s">
+      <c r="L27" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" s="65" t="s">
         <v>60</v>
       </c>
       <c r="O27" s="49" t="s">
@@ -3201,18 +3201,18 @@
     </row>
     <row r="28" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28" s="28"/>
       <c r="J28" s="24" t="str">
         <f>CONCATENATE($B$1,"-",$F$1,"-vnet")</f>
         <v>xxx-cus-vnet</v>
       </c>
-      <c r="K28" s="64" t="s">
-        <v>173</v>
+      <c r="K28" s="62" t="s">
+        <v>172</v>
       </c>
       <c r="L28" s="24" t="str">
         <f>CONCATENATE($B$1,$F$1,"vmstore")</f>
@@ -3244,16 +3244,16 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29" s="28"/>
-      <c r="J29" s="68" t="s">
+      <c r="J29" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="K29" s="69" t="s">
+      <c r="K29" s="66" t="s">
         <v>59</v>
       </c>
       <c r="O29" s="49" t="s">
@@ -3279,21 +3279,21 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30" s="28"/>
       <c r="J30" s="35" t="str">
         <f>LOOKUP(2,1/(COUNTIF($J$29:J29,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
         <v>xxx-cus-vnet-dmz3</v>
       </c>
-      <c r="K30" s="65" t="s">
-        <v>168</v>
+      <c r="K30" s="63" t="s">
+        <v>167</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P30" s="52"/>
       <c r="Q30" s="53">
@@ -3315,34 +3315,34 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" s="28"/>
       <c r="J31" s="35" t="str">
         <f>LOOKUP(2,1/(COUNTIF($J$29:J30,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
         <v>xxx-cus-vnet-lan3</v>
       </c>
-      <c r="K31" s="65" t="s">
-        <v>169</v>
+      <c r="K31" s="63" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" s="33"/>
       <c r="J32" s="35" t="str">
         <f>LOOKUP(2,1/(COUNTIF($J$29:J31,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
         <v>xxx-cus-vnet-dmz2</v>
       </c>
-      <c r="K32" s="65" t="s">
-        <v>170</v>
+      <c r="K32" s="63" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="10:12" x14ac:dyDescent="0.2">
@@ -3350,8 +3350,8 @@
         <f>LOOKUP(2,1/(COUNTIF($J$29:J32,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
         <v>xxx-cus-vnet-lan2</v>
       </c>
-      <c r="K33" s="65" t="s">
-        <v>171</v>
+      <c r="K33" s="63" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="10:12" x14ac:dyDescent="0.2">
@@ -3359,48 +3359,48 @@
         <f>LOOKUP(2,1/(COUNTIF($J$29:J33,'Virtual Machines'!$O$5:$O$25)=0),'Virtual Machines'!$O$5:$O$26)</f>
         <v>xxx-cus-vnet-lan1</v>
       </c>
-      <c r="K34" s="66" t="s">
-        <v>172</v>
+      <c r="K34" s="64" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J36" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
+      <c r="J36" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
     </row>
     <row r="37" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J37" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K37" s="50"/>
       <c r="L37" s="50"/>
     </row>
     <row r="38" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J38" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
     <row r="39" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J39" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
     </row>
     <row r="40" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J40" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
     </row>
     <row r="41" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J41" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
@@ -5241,55 +5241,55 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="63"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="63"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="63"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="63"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="63"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="63"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="63"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="63"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="63"/>
+      <c r="C15" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5348,7 +5348,7 @@
         <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5356,7 +5356,7 @@
         <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5364,7 +5364,7 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5372,7 +5372,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5380,7 +5380,7 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5388,7 +5388,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5396,7 +5396,7 @@
         <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5404,7 +5404,7 @@
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5412,7 +5412,7 @@
         <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5420,7 +5420,7 @@
         <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5436,7 +5436,7 @@
         <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5444,7 +5444,7 @@
         <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5452,7 +5452,7 @@
         <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5460,7 +5460,7 @@
         <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5468,7 +5468,7 @@
         <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5476,7 +5476,7 @@
         <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -5484,7 +5484,7 @@
         <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5492,7 +5492,7 @@
         <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5500,7 +5500,7 @@
         <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -5508,7 +5508,7 @@
         <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5516,7 +5516,7 @@
         <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -5524,7 +5524,7 @@
         <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -5532,7 +5532,7 @@
         <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5540,7 +5540,7 @@
         <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5548,7 +5548,7 @@
         <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -5556,7 +5556,7 @@
         <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
